--- a/Matrice projetée.xlsx
+++ b/Matrice projetée.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delch\Documents\FAC\M2\semestre 1\DRiM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE2AB356-0A0B-4E72-8A52-D67605843BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE0849A-A692-43F9-BB10-DF418687DD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU55" sqref="AU55"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -1839,7 +1839,7 @@
         <v>1.5844391602114423</v>
       </c>
       <c r="F17">
-        <v>9.6024144992769376E-3</v>
+        <v>1.264639E-2</v>
       </c>
       <c r="S17" t="s">
         <v>19</v>
@@ -1952,43 +1952,43 @@
       </c>
       <c r="U19" s="16">
         <f>_xlfn.NORM.DIST((_xlfn.NORM.INV(U4,0,1)-SQRT($F$17)*$AG$17)/(SQRT(1-$F$17)),0,1,TRUE)</f>
-        <v>1.9857554531616806E-2</v>
+        <v>1.8591494868612689E-2</v>
       </c>
       <c r="V19" s="16">
         <f t="shared" ref="V19:AD19" si="11">_xlfn.NORM.DIST((_xlfn.NORM.INV(V4,0,1)-SQRT($F$17)*$AG$17)/(SQRT(1-$F$17)),0,1,TRUE)</f>
-        <v>9.4460704355397093E-3</v>
+        <v>8.7709116421289101E-3</v>
       </c>
       <c r="W19" s="16">
         <f t="shared" si="11"/>
-        <v>1.7655525523370679E-3</v>
+        <v>1.6114134542516E-3</v>
       </c>
       <c r="X19" s="16">
         <f t="shared" si="11"/>
-        <v>3.7585498723098572E-4</v>
+        <v>3.3808708261715681E-4</v>
       </c>
       <c r="Y19" s="16">
         <f t="shared" si="11"/>
-        <v>2.7766065973323023E-4</v>
+        <v>2.4907792619264797E-4</v>
       </c>
       <c r="Z19" s="16">
         <f t="shared" si="11"/>
-        <v>7.1436480482876195E-5</v>
+        <v>6.3325765983693352E-5</v>
       </c>
       <c r="AA19" s="16">
         <f t="shared" si="11"/>
-        <v>3.6294098461839419E-5</v>
+        <v>3.1989700129742289E-5</v>
       </c>
       <c r="AB19" s="16">
         <f t="shared" si="11"/>
-        <v>1.5156474557098652E-5</v>
+        <v>1.3262965587590231E-5</v>
       </c>
       <c r="AC19" s="16">
         <f t="shared" si="11"/>
-        <v>4.3527141235337438E-6</v>
+        <v>3.7709985422061208E-6</v>
       </c>
       <c r="AD19" s="16">
         <f t="shared" si="11"/>
-        <v>2.9997004432309099E-6</v>
+        <v>2.5912152084117071E-6</v>
       </c>
       <c r="AG19">
         <v>1.6453251503662687</v>
@@ -1998,47 +1998,47 @@
       </c>
       <c r="AJ19" s="14">
         <f>T19-U19</f>
-        <v>0.98014244546838314</v>
+        <v>0.98140850513138733</v>
       </c>
       <c r="AK19" s="14">
         <f t="shared" ref="AK19:AT30" si="12">U19-V19</f>
-        <v>1.0411484096077096E-2</v>
+        <v>9.8205832264837787E-3</v>
       </c>
       <c r="AL19" s="14">
         <f t="shared" si="12"/>
-        <v>7.6805178832026417E-3</v>
+        <v>7.1594981878773103E-3</v>
       </c>
       <c r="AM19" s="14">
         <f t="shared" si="12"/>
-        <v>1.3896975651060822E-3</v>
+        <v>1.2733263716344432E-3</v>
       </c>
       <c r="AN19" s="14">
         <f t="shared" si="12"/>
-        <v>9.8194327497755493E-5</v>
+        <v>8.9009156424508845E-5</v>
       </c>
       <c r="AO19" s="14">
         <f t="shared" si="12"/>
-        <v>2.0622417925035403E-4</v>
+        <v>1.8575216020895463E-4</v>
       </c>
       <c r="AP19" s="14">
         <f t="shared" si="12"/>
-        <v>3.5142382021036776E-5</v>
+        <v>3.1336065853951062E-5</v>
       </c>
       <c r="AQ19" s="14">
         <f t="shared" si="12"/>
-        <v>2.1137623904740769E-5</v>
+        <v>1.8726734542152058E-5</v>
       </c>
       <c r="AR19" s="14">
         <f t="shared" si="12"/>
-        <v>1.0803760433564907E-5</v>
+        <v>9.4919670453841097E-6</v>
       </c>
       <c r="AS19" s="14">
         <f t="shared" si="12"/>
-        <v>1.3530136803028338E-6</v>
+        <v>1.1797833337944137E-6</v>
       </c>
       <c r="AT19" s="14">
         <f t="shared" si="12"/>
-        <v>2.9997004432309099E-6</v>
+        <v>2.5912152084117071E-6</v>
       </c>
     </row>
     <row r="20" spans="1:46">
@@ -2092,43 +2092,43 @@
       </c>
       <c r="U20" s="16">
         <f t="shared" ref="U20:AD28" si="13">_xlfn.NORM.DIST((_xlfn.NORM.INV(U5,0,1)-SQRT($F$17)*$AG$17)/(SQRT(1-$F$17)),0,1,TRUE)</f>
-        <v>0.96356742142028162</v>
+        <v>0.96184882558327167</v>
       </c>
       <c r="V20" s="16">
         <f t="shared" si="13"/>
-        <v>9.3589407062145968E-3</v>
+        <v>8.6891383265433591E-3</v>
       </c>
       <c r="W20" s="16">
         <f t="shared" si="13"/>
-        <v>8.2968701571449529E-3</v>
+        <v>7.6930930807033379E-3</v>
       </c>
       <c r="X20" s="16">
         <f t="shared" si="13"/>
-        <v>6.3758671670707725E-3</v>
+        <v>5.8953664905019723E-3</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" si="13"/>
-        <v>3.6622406186351424E-3</v>
+        <v>3.3668826535397309E-3</v>
       </c>
       <c r="Z20" s="16">
         <f t="shared" si="13"/>
-        <v>6.5989196756253271E-4</v>
+        <v>5.9666200655114979E-4</v>
       </c>
       <c r="AA20" s="16">
         <f t="shared" si="13"/>
-        <v>8.8582709350893074E-5</v>
+        <v>7.8670284971986578E-5</v>
       </c>
       <c r="AB20" s="16">
         <f t="shared" si="13"/>
-        <v>4.787940090168346E-5</v>
+        <v>4.2299338516480265E-5</v>
       </c>
       <c r="AC20" s="16">
         <f t="shared" si="13"/>
-        <v>6.1852965768299586E-6</v>
+        <v>5.3736165229987434E-6</v>
       </c>
       <c r="AD20" s="16">
         <f t="shared" si="13"/>
-        <v>4.3527141235337438E-6</v>
+        <v>3.7709985422061208E-6</v>
       </c>
       <c r="AG20">
         <v>1.6392430899419483</v>
@@ -2138,47 +2138,47 @@
       </c>
       <c r="AJ20" s="14">
         <f t="shared" ref="AJ20:AJ28" si="14">T20-U20</f>
-        <v>3.6432578579718378E-2</v>
+        <v>3.8151174416728328E-2</v>
       </c>
       <c r="AK20" s="14">
         <f t="shared" si="12"/>
-        <v>0.95420848071406705</v>
+        <v>0.95315968725672828</v>
       </c>
       <c r="AL20" s="14">
         <f t="shared" si="12"/>
-        <v>1.0620705490696439E-3</v>
+        <v>9.9604524584002117E-4</v>
       </c>
       <c r="AM20" s="14">
         <f t="shared" si="12"/>
-        <v>1.9210029900741804E-3</v>
+        <v>1.7977265902013656E-3</v>
       </c>
       <c r="AN20" s="14">
         <f t="shared" si="12"/>
-        <v>2.71362654843563E-3</v>
+        <v>2.5284838369622415E-3</v>
       </c>
       <c r="AO20" s="14">
         <f t="shared" si="12"/>
-        <v>3.0023486510726096E-3</v>
+        <v>2.7702206469885811E-3</v>
       </c>
       <c r="AP20" s="14">
         <f t="shared" si="12"/>
-        <v>5.7130925821163967E-4</v>
+        <v>5.1799172157916316E-4</v>
       </c>
       <c r="AQ20" s="14">
         <f t="shared" si="12"/>
-        <v>4.0703308449209614E-5</v>
+        <v>3.6370946455506313E-5</v>
       </c>
       <c r="AR20" s="14">
         <f t="shared" si="12"/>
-        <v>4.1694104324853502E-5</v>
+        <v>3.6925721993481524E-5</v>
       </c>
       <c r="AS20" s="14">
         <f t="shared" si="12"/>
-        <v>1.8325824532962149E-6</v>
+        <v>1.6026179807926226E-6</v>
       </c>
       <c r="AT20" s="14">
         <f t="shared" si="12"/>
-        <v>4.3527141235337438E-6</v>
+        <v>3.7709985422061208E-6</v>
       </c>
     </row>
     <row r="21" spans="1:46">
@@ -2236,43 +2236,43 @@
       </c>
       <c r="U21" s="16">
         <f t="shared" si="13"/>
-        <v>0.99264826577486531</v>
+        <v>0.99222859677856612</v>
       </c>
       <c r="V21" s="16">
         <f t="shared" si="13"/>
-        <v>0.9546353179053636</v>
+        <v>0.95256869265105759</v>
       </c>
       <c r="W21" s="16">
         <f t="shared" si="13"/>
-        <v>7.3509372608259911E-3</v>
+        <v>6.8071940735154792E-3</v>
       </c>
       <c r="X21" s="16">
         <f t="shared" si="13"/>
-        <v>7.1228575282870146E-3</v>
+        <v>6.5937777474751047E-3</v>
       </c>
       <c r="Y21" s="16">
         <f t="shared" si="13"/>
-        <v>6.8665940227504206E-3</v>
+        <v>6.3540820757468979E-3</v>
       </c>
       <c r="Z21" s="16">
         <f t="shared" si="13"/>
-        <v>4.0347497285618348E-3</v>
+        <v>3.7130142494014012E-3</v>
       </c>
       <c r="AA21" s="16">
         <f t="shared" si="13"/>
-        <v>9.4389987792168988E-4</v>
+        <v>8.5632753446693039E-4</v>
       </c>
       <c r="AB21" s="16">
         <f t="shared" si="13"/>
-        <v>1.5861652558417179E-4</v>
+        <v>1.4158272219616942E-4</v>
       </c>
       <c r="AC21" s="16">
         <f t="shared" si="13"/>
-        <v>5.8577378399543136E-5</v>
+        <v>5.183893771469274E-5</v>
       </c>
       <c r="AD21" s="16">
         <f t="shared" si="13"/>
-        <v>8.5099537039018243E-6</v>
+        <v>7.4121014741580773E-6</v>
       </c>
       <c r="AG21">
         <v>1.6409273785146734</v>
@@ -2282,47 +2282,47 @@
       </c>
       <c r="AJ21" s="14">
         <f t="shared" si="14"/>
-        <v>7.3517342251346873E-3</v>
+        <v>7.7714032214338813E-3</v>
       </c>
       <c r="AK21" s="14">
         <f t="shared" si="12"/>
-        <v>3.8012947869501712E-2</v>
+        <v>3.9659904127508527E-2</v>
       </c>
       <c r="AL21" s="14">
         <f t="shared" si="12"/>
-        <v>0.94728438064453757</v>
+        <v>0.9457614985775421</v>
       </c>
       <c r="AM21" s="14">
         <f t="shared" si="12"/>
-        <v>2.2807973253897648E-4</v>
+        <v>2.1341632604037451E-4</v>
       </c>
       <c r="AN21" s="14">
         <f t="shared" si="12"/>
-        <v>2.5626350553659399E-4</v>
+        <v>2.3969567172820675E-4</v>
       </c>
       <c r="AO21" s="14">
         <f t="shared" si="12"/>
-        <v>2.8318442941885858E-3</v>
+        <v>2.6410678263454968E-3</v>
       </c>
       <c r="AP21" s="14">
         <f t="shared" si="12"/>
-        <v>3.0908498506401448E-3</v>
+        <v>2.8566867149344708E-3</v>
       </c>
       <c r="AQ21" s="14">
         <f t="shared" si="12"/>
-        <v>7.8528335233751811E-4</v>
+        <v>7.1474481227076097E-4</v>
       </c>
       <c r="AR21" s="14">
         <f t="shared" si="12"/>
-        <v>1.0003914718462866E-4</v>
+        <v>8.9743784481476671E-5</v>
       </c>
       <c r="AS21" s="14">
         <f t="shared" si="12"/>
-        <v>5.0067424695641312E-5</v>
+        <v>4.4426836240534661E-5</v>
       </c>
       <c r="AT21" s="14">
         <f t="shared" si="12"/>
-        <v>8.5099537039018243E-6</v>
+        <v>7.4121014741580773E-6</v>
       </c>
     </row>
     <row r="22" spans="1:46">
@@ -2379,43 +2379,43 @@
       </c>
       <c r="U22" s="16">
         <f t="shared" si="13"/>
-        <v>0.99989526889412106</v>
+        <v>0.99988749833412238</v>
       </c>
       <c r="V22" s="16">
         <f t="shared" si="13"/>
-        <v>0.98087825001533346</v>
+        <v>0.97989308662382069</v>
       </c>
       <c r="W22" s="16">
         <f t="shared" si="13"/>
-        <v>0.94044145032792226</v>
+        <v>0.93785448166535534</v>
       </c>
       <c r="X22" s="16">
         <f t="shared" si="13"/>
-        <v>1.0076637424617292E-2</v>
+        <v>9.362970284047957E-3</v>
       </c>
       <c r="Y22" s="16">
         <f t="shared" si="13"/>
-        <v>9.7480407126376255E-3</v>
+        <v>9.0543851961393043E-3</v>
       </c>
       <c r="Z22" s="16">
         <f t="shared" si="13"/>
-        <v>9.2718660445373947E-3</v>
+        <v>8.607425512817098E-3</v>
       </c>
       <c r="AA22" s="16">
         <f t="shared" si="13"/>
-        <v>2.0048109265158424E-3</v>
+        <v>1.8320620386462084E-3</v>
       </c>
       <c r="AB22" s="16">
         <f t="shared" si="13"/>
-        <v>1.940054573351471E-3</v>
+        <v>1.7723142586304791E-3</v>
       </c>
       <c r="AC22" s="16">
         <f t="shared" si="13"/>
-        <v>1.2334841671989854E-4</v>
+        <v>1.0986013918794575E-4</v>
       </c>
       <c r="AD22" s="16">
         <f t="shared" si="13"/>
-        <v>3.4794791047699532E-5</v>
+        <v>3.0657393445453126E-5</v>
       </c>
       <c r="AG22">
         <v>1.6293148081121143</v>
@@ -2425,47 +2425,47 @@
       </c>
       <c r="AJ22" s="14">
         <f t="shared" si="14"/>
-        <v>1.047311058789413E-4</v>
+        <v>1.125016658776179E-4</v>
       </c>
       <c r="AK22" s="14">
         <f t="shared" si="12"/>
-        <v>1.9017018878787595E-2</v>
+        <v>1.9994411710301696E-2</v>
       </c>
       <c r="AL22" s="14">
         <f t="shared" si="12"/>
-        <v>4.0436799687411207E-2</v>
+        <v>4.2038604958465342E-2</v>
       </c>
       <c r="AM22" s="14">
         <f t="shared" si="12"/>
-        <v>0.93036481290330497</v>
+        <v>0.92849151138130737</v>
       </c>
       <c r="AN22" s="14">
         <f t="shared" si="12"/>
-        <v>3.2859671197966664E-4</v>
+        <v>3.0858508790865269E-4</v>
       </c>
       <c r="AO22" s="14">
         <f t="shared" si="12"/>
-        <v>4.7617466810023074E-4</v>
+        <v>4.4695968332220636E-4</v>
       </c>
       <c r="AP22" s="14">
         <f t="shared" si="12"/>
-        <v>7.2670551180215523E-3</v>
+        <v>6.7753634741708896E-3</v>
       </c>
       <c r="AQ22" s="14">
         <f t="shared" si="12"/>
-        <v>6.475635316437146E-5</v>
+        <v>5.9747780015729276E-5</v>
       </c>
       <c r="AR22" s="14">
         <f t="shared" si="12"/>
-        <v>1.8167061566315725E-3</v>
+        <v>1.6624541194425334E-3</v>
       </c>
       <c r="AS22" s="14">
         <f t="shared" si="12"/>
-        <v>8.8553625672199005E-5</v>
+        <v>7.9202745742492625E-5</v>
       </c>
       <c r="AT22" s="14">
         <f t="shared" si="12"/>
-        <v>3.4794791047699532E-5</v>
+        <v>3.0657393445453126E-5</v>
       </c>
     </row>
     <row r="23" spans="1:46">
@@ -2522,43 +2522,43 @@
       </c>
       <c r="U23" s="16">
         <f t="shared" si="13"/>
-        <v>0.99989871956067378</v>
+        <v>0.99989119473631538</v>
       </c>
       <c r="V23" s="16">
         <f t="shared" si="13"/>
-        <v>0.98539929211993338</v>
+        <v>0.98462273238403242</v>
       </c>
       <c r="W23" s="16">
         <f t="shared" si="13"/>
-        <v>0.97338613140232633</v>
+        <v>0.97207246830809624</v>
       </c>
       <c r="X23" s="16">
         <f t="shared" si="13"/>
-        <v>0.94379733145493816</v>
+        <v>0.94133010892859037</v>
       </c>
       <c r="Y23" s="16">
         <f t="shared" si="13"/>
-        <v>1.1837473020155514E-2</v>
+        <v>1.1018493795929844E-2</v>
       </c>
       <c r="Z23" s="16">
         <f t="shared" si="13"/>
-        <v>1.1378894397089216E-2</v>
+        <v>1.0587043599754441E-2</v>
       </c>
       <c r="AA23" s="16">
         <f t="shared" si="13"/>
-        <v>3.1478806484372761E-3</v>
+        <v>2.8895764525390579E-3</v>
       </c>
       <c r="AB23" s="16">
         <f t="shared" si="13"/>
-        <v>2.8821675307688899E-3</v>
+        <v>2.643323213360979E-3</v>
       </c>
       <c r="AC23" s="16">
         <f t="shared" si="13"/>
-        <v>1.753258262580419E-4</v>
+        <v>1.5663564722557041E-4</v>
       </c>
       <c r="AD23" s="16">
         <f t="shared" si="13"/>
-        <v>5.5000003903434639E-5</v>
+        <v>4.8647074919555399E-5</v>
       </c>
       <c r="AG23">
         <v>1.6262249462979093</v>
@@ -2568,47 +2568,47 @@
       </c>
       <c r="AJ23" s="14">
         <f t="shared" si="14"/>
-        <v>1.0128043932622344E-4</v>
+        <v>1.0880526368461929E-4</v>
       </c>
       <c r="AK23" s="14">
         <f t="shared" si="12"/>
-        <v>1.4499427440740398E-2</v>
+        <v>1.5268462352282963E-2</v>
       </c>
       <c r="AL23" s="14">
         <f t="shared" si="12"/>
-        <v>1.2013160717607052E-2</v>
+        <v>1.2550264075936179E-2</v>
       </c>
       <c r="AM23" s="14">
         <f t="shared" si="12"/>
-        <v>2.9588799947388167E-2</v>
+        <v>3.0742359379505868E-2</v>
       </c>
       <c r="AN23" s="14">
         <f t="shared" si="12"/>
-        <v>0.93195985843478268</v>
+        <v>0.93031161513266047</v>
       </c>
       <c r="AO23" s="14">
         <f t="shared" si="12"/>
-        <v>4.5857862306629762E-4</v>
+        <v>4.314501961754022E-4</v>
       </c>
       <c r="AP23" s="14">
         <f t="shared" si="12"/>
-        <v>8.2310137486519396E-3</v>
+        <v>7.6974671472153835E-3</v>
       </c>
       <c r="AQ23" s="14">
         <f t="shared" si="12"/>
-        <v>2.6571311766838621E-4</v>
+        <v>2.4625323917807891E-4</v>
       </c>
       <c r="AR23" s="14">
         <f t="shared" si="12"/>
-        <v>2.7068417045108479E-3</v>
+        <v>2.4866875661354085E-3</v>
       </c>
       <c r="AS23" s="14">
         <f t="shared" si="12"/>
-        <v>1.2032582235460727E-4</v>
+        <v>1.0798857230601502E-4</v>
       </c>
       <c r="AT23" s="14">
         <f t="shared" si="12"/>
-        <v>5.5000003903434639E-5</v>
+        <v>4.8647074919555399E-5</v>
       </c>
     </row>
     <row r="24" spans="1:46">
@@ -2666,43 +2666,43 @@
       </c>
       <c r="U24" s="16">
         <f t="shared" si="13"/>
-        <v>0.99986949586126339</v>
+        <v>0.99985990140474945</v>
       </c>
       <c r="V24" s="16">
         <f t="shared" si="13"/>
-        <v>0.99836870588869808</v>
+        <v>0.99826382659196866</v>
       </c>
       <c r="W24" s="16">
         <f t="shared" si="13"/>
-        <v>0.97731672332670216</v>
+        <v>0.97617299557362691</v>
       </c>
       <c r="X24" s="16">
         <f t="shared" si="13"/>
-        <v>0.97481606605339421</v>
+        <v>0.97356365088245367</v>
       </c>
       <c r="Y24" s="16">
         <f t="shared" si="13"/>
-        <v>0.95364637274970465</v>
+        <v>0.95154225986479068</v>
       </c>
       <c r="Z24" s="16">
         <f t="shared" si="13"/>
-        <v>1.7080538301125155E-2</v>
+        <v>1.5964064911488454E-2</v>
       </c>
       <c r="AA24" s="16">
         <f t="shared" si="13"/>
-        <v>1.5798560794951032E-2</v>
+        <v>1.4752870161090646E-2</v>
       </c>
       <c r="AB24" s="16">
         <f t="shared" si="13"/>
-        <v>6.1281080728670424E-3</v>
+        <v>5.6639181886865772E-3</v>
       </c>
       <c r="AC24" s="16">
         <f t="shared" si="13"/>
-        <v>1.7477889777820315E-3</v>
+        <v>1.5950433364614249E-3</v>
       </c>
       <c r="AD24" s="16">
         <f t="shared" si="13"/>
-        <v>1.3665476316970709E-4</v>
+        <v>1.2182023903896943E-4</v>
       </c>
       <c r="AG24">
         <v>1.6258004806413444</v>
@@ -2712,47 +2712,47 @@
       </c>
       <c r="AJ24" s="14">
         <f t="shared" si="14"/>
-        <v>1.3050413873627598E-4</v>
+        <v>1.400985952502154E-4</v>
       </c>
       <c r="AK24" s="14">
         <f t="shared" si="12"/>
-        <v>1.5007899725653084E-3</v>
+        <v>1.59607481278079E-3</v>
       </c>
       <c r="AL24" s="14">
         <f t="shared" si="12"/>
-        <v>2.1051982561995919E-2</v>
+        <v>2.209083101834175E-2</v>
       </c>
       <c r="AM24" s="14">
         <f t="shared" si="12"/>
-        <v>2.5006572733079491E-3</v>
+        <v>2.6093446911732432E-3</v>
       </c>
       <c r="AN24" s="14">
         <f t="shared" si="12"/>
-        <v>2.1169693303689563E-2</v>
+        <v>2.2021391017662983E-2</v>
       </c>
       <c r="AO24" s="14">
         <f t="shared" si="12"/>
-        <v>0.93656583444857955</v>
+        <v>0.93557819495330219</v>
       </c>
       <c r="AP24" s="14">
         <f t="shared" si="12"/>
-        <v>1.2819775061741236E-3</v>
+        <v>1.2111947503978086E-3</v>
       </c>
       <c r="AQ24" s="14">
         <f t="shared" si="12"/>
-        <v>9.6704527220839893E-3</v>
+        <v>9.0889519724040684E-3</v>
       </c>
       <c r="AR24" s="14">
         <f t="shared" si="12"/>
-        <v>4.3803190950850108E-3</v>
+        <v>4.0688748522251525E-3</v>
       </c>
       <c r="AS24" s="14">
         <f t="shared" si="12"/>
-        <v>1.6111342146123244E-3</v>
+        <v>1.4732230974224554E-3</v>
       </c>
       <c r="AT24" s="14">
         <f t="shared" si="12"/>
-        <v>1.3665476316970709E-4</v>
+        <v>1.2182023903896943E-4</v>
       </c>
     </row>
     <row r="25" spans="1:46">
@@ -2809,43 +2809,43 @@
       </c>
       <c r="U25" s="16">
         <f t="shared" si="13"/>
-        <v>0.99992821433527079</v>
+        <v>0.99992280756980412</v>
       </c>
       <c r="V25" s="16">
         <f t="shared" si="13"/>
-        <v>0.99839372818142447</v>
+        <v>0.9982903513752841</v>
       </c>
       <c r="W25" s="16">
         <f t="shared" si="13"/>
-        <v>0.99459267068041157</v>
+        <v>0.99427530812903742</v>
       </c>
       <c r="X25" s="16">
         <f t="shared" si="13"/>
-        <v>0.98186322287875871</v>
+        <v>0.98092276376733267</v>
       </c>
       <c r="Y25" s="16">
         <f t="shared" si="13"/>
-        <v>0.9689494782637833</v>
+        <v>0.96744963278876706</v>
       </c>
       <c r="Z25" s="16">
         <f t="shared" si="13"/>
-        <v>0.94631524319144433</v>
+        <v>0.9439391497377001</v>
       </c>
       <c r="AA25" s="16">
         <f t="shared" si="13"/>
-        <v>3.015434661283967E-2</v>
+        <v>2.8370222376091353E-2</v>
       </c>
       <c r="AB25" s="16">
         <f t="shared" si="13"/>
-        <v>2.8751994600311425E-2</v>
+        <v>2.7035497794331547E-2</v>
       </c>
       <c r="AC25" s="16">
         <f t="shared" si="13"/>
-        <v>1.2359711906906637E-2</v>
+        <v>1.151007916049664E-2</v>
       </c>
       <c r="AD25" s="16">
         <f t="shared" si="13"/>
-        <v>5.6352330278400698E-4</v>
+        <v>5.0878187577246175E-4</v>
       </c>
       <c r="AG25">
         <v>1.6255367923856947</v>
@@ -2855,47 +2855,47 @@
       </c>
       <c r="AJ25" s="14">
         <f t="shared" si="14"/>
-        <v>7.1785664729206999E-5</v>
+        <v>7.7192430195882622E-5</v>
       </c>
       <c r="AK25" s="14">
         <f t="shared" si="12"/>
-        <v>1.5344861538463261E-3</v>
+        <v>1.6324561945200156E-3</v>
       </c>
       <c r="AL25" s="14">
         <f t="shared" si="12"/>
-        <v>3.8010575010128944E-3</v>
+        <v>4.0150432462466856E-3</v>
       </c>
       <c r="AM25" s="14">
         <f t="shared" si="12"/>
-        <v>1.272944780165286E-2</v>
+        <v>1.3352544361704743E-2</v>
       </c>
       <c r="AN25" s="14">
         <f t="shared" si="12"/>
-        <v>1.2913744614975409E-2</v>
+        <v>1.3473130978565617E-2</v>
       </c>
       <c r="AO25" s="14">
         <f t="shared" si="12"/>
-        <v>2.2634235072338971E-2</v>
+        <v>2.3510483051066955E-2</v>
       </c>
       <c r="AP25" s="14">
         <f t="shared" si="12"/>
-        <v>0.91616089657860467</v>
+        <v>0.91556892736160878</v>
       </c>
       <c r="AQ25" s="14">
         <f t="shared" si="12"/>
-        <v>1.4023520125282449E-3</v>
+        <v>1.3347245817598059E-3</v>
       </c>
       <c r="AR25" s="14">
         <f t="shared" si="12"/>
-        <v>1.6392282693404786E-2</v>
+        <v>1.5525418633834907E-2</v>
       </c>
       <c r="AS25" s="14">
         <f t="shared" si="12"/>
-        <v>1.179618860412263E-2</v>
+        <v>1.1001297284724178E-2</v>
       </c>
       <c r="AT25" s="14">
         <f t="shared" si="12"/>
-        <v>5.6352330278400698E-4</v>
+        <v>5.0878187577246175E-4</v>
       </c>
     </row>
     <row r="26" spans="1:46">
@@ -2952,43 +2952,43 @@
       </c>
       <c r="U26" s="16">
         <f t="shared" si="13"/>
-        <v>0.99992821433527079</v>
+        <v>0.99992280756980412</v>
       </c>
       <c r="V26" s="16">
         <f t="shared" si="13"/>
-        <v>0.99928680459093033</v>
+        <v>0.99923855998233913</v>
       </c>
       <c r="W26" s="16">
         <f t="shared" si="13"/>
-        <v>0.99026025976780729</v>
+        <v>0.98971930361902249</v>
       </c>
       <c r="X26" s="16">
         <f t="shared" si="13"/>
-        <v>0.98864433975484822</v>
+        <v>0.98802355154426258</v>
       </c>
       <c r="Y26" s="16">
         <f t="shared" si="13"/>
-        <v>0.98696525661468937</v>
+        <v>0.98626316420554661</v>
       </c>
       <c r="Z26" s="16">
         <f t="shared" si="13"/>
-        <v>0.92871330094321403</v>
+        <v>0.92572217487751174</v>
       </c>
       <c r="AA26" s="16">
         <f t="shared" si="13"/>
-        <v>0.88292859581839134</v>
+        <v>0.87853728969080891</v>
       </c>
       <c r="AB26" s="16">
         <f t="shared" si="13"/>
-        <v>5.6657297963836568E-2</v>
+        <v>5.372191224568313E-2</v>
       </c>
       <c r="AC26" s="16">
         <f t="shared" si="13"/>
-        <v>4.5447977803674655E-2</v>
+        <v>4.2973515133125771E-2</v>
       </c>
       <c r="AD26" s="16">
         <f t="shared" si="13"/>
-        <v>2.0678359367274526E-3</v>
+        <v>1.8902315696337256E-3</v>
       </c>
       <c r="AG26">
         <v>1.6275792072489561</v>
@@ -2998,47 +2998,47 @@
       </c>
       <c r="AJ26" s="14">
         <f t="shared" si="14"/>
-        <v>7.1785664729206999E-5</v>
+        <v>7.7192430195882622E-5</v>
       </c>
       <c r="AK26" s="14">
         <f t="shared" si="12"/>
-        <v>6.4140974434045983E-4</v>
+        <v>6.8424758746499226E-4</v>
       </c>
       <c r="AL26" s="14">
         <f t="shared" si="12"/>
-        <v>9.0265448231230394E-3</v>
+        <v>9.5192563633166305E-3</v>
       </c>
       <c r="AM26" s="14">
         <f t="shared" si="12"/>
-        <v>1.6159200129590712E-3</v>
+        <v>1.6957520747599153E-3</v>
       </c>
       <c r="AN26" s="14">
         <f t="shared" si="12"/>
-        <v>1.6790831401588546E-3</v>
+        <v>1.7603873387159741E-3</v>
       </c>
       <c r="AO26" s="14">
         <f t="shared" si="12"/>
-        <v>5.8251955671475342E-2</v>
+        <v>6.0540989328034867E-2</v>
       </c>
       <c r="AP26" s="14">
         <f t="shared" si="12"/>
-        <v>4.5784705124822689E-2</v>
+        <v>4.718488518670283E-2</v>
       </c>
       <c r="AQ26" s="14">
         <f t="shared" si="12"/>
-        <v>0.82627129785455478</v>
+        <v>0.82481537744512579</v>
       </c>
       <c r="AR26" s="14">
         <f t="shared" si="12"/>
-        <v>1.1209320160161913E-2</v>
+        <v>1.0748397112557359E-2</v>
       </c>
       <c r="AS26" s="14">
         <f t="shared" si="12"/>
-        <v>4.3380141866947206E-2</v>
+        <v>4.1083283563492043E-2</v>
       </c>
       <c r="AT26" s="14">
         <f t="shared" si="12"/>
-        <v>2.0678359367274526E-3</v>
+        <v>1.8902315696337256E-3</v>
       </c>
     </row>
     <row r="27" spans="1:46">
@@ -3096,43 +3096,43 @@
       </c>
       <c r="U27" s="16">
         <f t="shared" si="13"/>
-        <v>0.99992647021059877</v>
+        <v>0.99992093722266007</v>
       </c>
       <c r="V27" s="16">
         <f t="shared" si="13"/>
-        <v>0.99881384657461214</v>
+        <v>0.99873600196049706</v>
       </c>
       <c r="W27" s="16">
         <f t="shared" si="13"/>
-        <v>0.99678374933634761</v>
+        <v>0.99658678406055246</v>
       </c>
       <c r="X27" s="16">
         <f t="shared" si="13"/>
-        <v>0.9877541314232442</v>
+        <v>0.98709004050517635</v>
       </c>
       <c r="Y27" s="16">
         <f t="shared" si="13"/>
-        <v>0.97454417101844382</v>
+        <v>0.9732800607580292</v>
       </c>
       <c r="Z27" s="16">
         <f t="shared" si="13"/>
-        <v>0.94193523900447518</v>
+        <v>0.93940133539256443</v>
       </c>
       <c r="AA27" s="16">
         <f t="shared" si="13"/>
-        <v>0.83065864817301138</v>
+        <v>0.82494181457500715</v>
       </c>
       <c r="AB27" s="16">
         <f t="shared" si="13"/>
-        <v>0.80632425726092716</v>
+        <v>0.80007257415318001</v>
       </c>
       <c r="AC27" s="16">
         <f t="shared" si="13"/>
-        <v>0.10559888656384739</v>
+        <v>0.10096258373632098</v>
       </c>
       <c r="AD27" s="16">
         <f t="shared" si="13"/>
-        <v>1.183678144710236E-2</v>
+        <v>1.1017842983818941E-2</v>
       </c>
       <c r="AG27">
         <v>1.6244251108168322</v>
@@ -3142,47 +3142,47 @@
       </c>
       <c r="AJ27" s="14">
         <f t="shared" si="14"/>
-        <v>7.3529789400894607E-5</v>
+        <v>7.906277733960021E-5</v>
       </c>
       <c r="AK27" s="14">
         <f t="shared" si="12"/>
-        <v>1.1126236359866315E-3</v>
+        <v>1.1849352621630116E-3</v>
       </c>
       <c r="AL27" s="14">
         <f t="shared" si="12"/>
-        <v>2.0300972382645277E-3</v>
+        <v>2.1492178999445999E-3</v>
       </c>
       <c r="AM27" s="14">
         <f t="shared" si="12"/>
-        <v>9.029617913103416E-3</v>
+        <v>9.4967435553761081E-3</v>
       </c>
       <c r="AN27" s="14">
         <f t="shared" si="12"/>
-        <v>1.320996040480038E-2</v>
+        <v>1.380997974714715E-2</v>
       </c>
       <c r="AO27" s="14">
         <f t="shared" si="12"/>
-        <v>3.2608932013968639E-2</v>
+        <v>3.3878725365464768E-2</v>
       </c>
       <c r="AP27" s="14">
         <f t="shared" si="12"/>
-        <v>0.1112765908314638</v>
+        <v>0.11445952081755728</v>
       </c>
       <c r="AQ27" s="14">
         <f t="shared" si="12"/>
-        <v>2.4334390912084225E-2</v>
+        <v>2.4869240421827143E-2</v>
       </c>
       <c r="AR27" s="14">
         <f t="shared" si="12"/>
-        <v>0.70072537069707974</v>
+        <v>0.69910999041685906</v>
       </c>
       <c r="AS27" s="14">
         <f t="shared" si="12"/>
-        <v>9.3762105116745029E-2</v>
+        <v>8.9944740752502042E-2</v>
       </c>
       <c r="AT27" s="14">
         <f t="shared" si="12"/>
-        <v>1.183678144710236E-2</v>
+        <v>1.1017842983818941E-2</v>
       </c>
     </row>
     <row r="28" spans="1:46">
@@ -3239,43 +3239,43 @@
       </c>
       <c r="U28" s="16">
         <f t="shared" si="13"/>
-        <v>0.99998502024682001</v>
+        <v>0.99998382935790153</v>
       </c>
       <c r="V28" s="16">
         <f t="shared" si="13"/>
-        <v>0.99982349760474376</v>
+        <v>0.99981069048302496</v>
       </c>
       <c r="W28" s="16">
         <f t="shared" si="13"/>
-        <v>0.9989392126984401</v>
+        <v>0.99886911315378701</v>
       </c>
       <c r="X28" s="16">
         <f t="shared" si="13"/>
-        <v>0.99691298059266265</v>
+        <v>0.99672333398402257</v>
       </c>
       <c r="Y28" s="16">
         <f t="shared" si="13"/>
-        <v>0.99397719445311916</v>
+        <v>0.99362705135942453</v>
       </c>
       <c r="Z28" s="16">
         <f t="shared" si="13"/>
-        <v>0.97277222276429232</v>
+        <v>0.97143245660758948</v>
       </c>
       <c r="AA28" s="16">
         <f t="shared" si="13"/>
-        <v>0.85384590825836926</v>
+        <v>0.84868555595183914</v>
       </c>
       <c r="AB28" s="16">
         <f t="shared" si="13"/>
-        <v>0.74892448637150077</v>
+        <v>0.74159205189275124</v>
       </c>
       <c r="AC28" s="16">
         <f t="shared" si="13"/>
-        <v>0.61712792596511057</v>
+        <v>0.60815894760602762</v>
       </c>
       <c r="AD28" s="16">
         <f t="shared" si="13"/>
-        <v>0.14268507040409267</v>
+        <v>0.13700810959924759</v>
       </c>
       <c r="AG28">
         <v>1.6306851561260114</v>
@@ -3285,47 +3285,47 @@
       </c>
       <c r="AJ28" s="14">
         <f t="shared" si="14"/>
-        <v>1.4979753179988897E-5</v>
+        <v>1.6170642098467525E-5</v>
       </c>
       <c r="AK28" s="14">
         <f t="shared" si="12"/>
-        <v>1.6152264207625056E-4</v>
+        <v>1.731388748765772E-4</v>
       </c>
       <c r="AL28" s="14">
         <f t="shared" si="12"/>
-        <v>8.8428490630365619E-4</v>
+        <v>9.4157732923794146E-4</v>
       </c>
       <c r="AM28" s="14">
         <f t="shared" si="12"/>
-        <v>2.026232105777459E-3</v>
+        <v>2.1457791697644391E-3</v>
       </c>
       <c r="AN28" s="14">
         <f t="shared" si="12"/>
-        <v>2.9357861395434837E-3</v>
+        <v>3.0962826245980457E-3</v>
       </c>
       <c r="AO28" s="14">
         <f t="shared" si="12"/>
-        <v>2.1204971688826846E-2</v>
+        <v>2.2194594751835051E-2</v>
       </c>
       <c r="AP28" s="14">
         <f t="shared" si="12"/>
-        <v>0.11892631450592306</v>
+        <v>0.12274690065575034</v>
       </c>
       <c r="AQ28" s="14">
         <f t="shared" si="12"/>
-        <v>0.10492142188686848</v>
+        <v>0.10709350405908791</v>
       </c>
       <c r="AR28" s="14">
         <f t="shared" si="12"/>
-        <v>0.13179656040639021</v>
+        <v>0.13343310428672361</v>
       </c>
       <c r="AS28" s="14">
         <f t="shared" si="12"/>
-        <v>0.4744428555610179</v>
+        <v>0.47115083800678004</v>
       </c>
       <c r="AT28" s="14">
         <f t="shared" si="12"/>
-        <v>0.14268507040409267</v>
+        <v>0.13700810959924759</v>
       </c>
     </row>
     <row r="29" spans="1:46">
@@ -3563,43 +3563,43 @@
       </c>
       <c r="U34" s="16">
         <f>_xlfn.NORM.DIST((_xlfn.NORM.INV(U4,0,1)-SQRT($F$17)*$AG$29)/(SQRT(1-$F$17)),0,1,TRUE)</f>
-        <v>1.9900896679408898E-2</v>
+        <v>1.8638605433270217E-2</v>
       </c>
       <c r="V34" s="16">
         <f t="shared" ref="V34:AD34" si="17">_xlfn.NORM.DIST((_xlfn.NORM.INV(V4,0,1)-SQRT($F$17)*$AG$29)/(SQRT(1-$F$17)),0,1,TRUE)</f>
-        <v>9.4689107600394434E-3</v>
+        <v>8.7955175042483454E-3</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>1.7706528006318312E-3</v>
+        <v>1.6168088071524284E-3</v>
       </c>
       <c r="X34" s="16">
         <f t="shared" si="17"/>
-        <v>3.7708411952741631E-4</v>
+        <v>3.3936773829546863E-4</v>
       </c>
       <c r="Y34" s="16">
         <f t="shared" si="17"/>
-        <v>2.7858814485580608E-4</v>
+        <v>2.5004155218719815E-4</v>
       </c>
       <c r="Z34" s="16">
         <f t="shared" si="17"/>
-        <v>7.1696493862881145E-5</v>
+        <v>6.3592613299019951E-5</v>
       </c>
       <c r="AA34" s="16">
         <f t="shared" si="17"/>
-        <v>3.6431329877113991E-5</v>
+        <v>3.21297107782227E-5</v>
       </c>
       <c r="AB34" s="16">
         <f t="shared" si="17"/>
-        <v>1.5216441391853048E-5</v>
+        <v>1.3323695492704289E-5</v>
       </c>
       <c r="AC34" s="16">
         <f t="shared" si="17"/>
-        <v>4.3709757288633436E-6</v>
+        <v>3.7893039735222828E-6</v>
       </c>
       <c r="AD34" s="16">
         <f t="shared" si="17"/>
-        <v>3.0124922369167761E-6</v>
+        <v>2.6039994165981403E-6</v>
       </c>
       <c r="AG34">
         <v>1.6109684091475884</v>
@@ -3609,47 +3609,47 @@
       </c>
       <c r="AJ34" s="14">
         <f>T34-U34</f>
-        <v>0.98009910332059114</v>
+        <v>0.98136139456672977</v>
       </c>
       <c r="AK34" s="14">
         <f t="shared" ref="AK34:AT43" si="18">U34-V34</f>
-        <v>1.0431985919369455E-2</v>
+        <v>9.8430879290218719E-3</v>
       </c>
       <c r="AL34" s="14">
         <f t="shared" si="18"/>
-        <v>7.6982579594076124E-3</v>
+        <v>7.1787086970959172E-3</v>
       </c>
       <c r="AM34" s="14">
         <f t="shared" si="18"/>
-        <v>1.3935686811044148E-3</v>
+        <v>1.2774410688569599E-3</v>
       </c>
       <c r="AN34" s="14">
         <f t="shared" si="18"/>
-        <v>9.8495974671610224E-5</v>
+        <v>8.9326186108270483E-5</v>
       </c>
       <c r="AO34" s="14">
         <f t="shared" si="18"/>
-        <v>2.0689165099292494E-4</v>
+        <v>1.864489388881782E-4</v>
       </c>
       <c r="AP34" s="14">
         <f t="shared" si="18"/>
-        <v>3.5265163985767154E-5</v>
+        <v>3.1462902520797251E-5</v>
       </c>
       <c r="AQ34" s="14">
         <f t="shared" si="18"/>
-        <v>2.1214888485260943E-5</v>
+        <v>1.8806015285518412E-5</v>
       </c>
       <c r="AR34" s="14">
         <f t="shared" si="18"/>
-        <v>1.0845465662989704E-5</v>
+        <v>9.5343915191820062E-6</v>
       </c>
       <c r="AS34" s="14">
         <f t="shared" si="18"/>
-        <v>1.3584834919465675E-6</v>
+        <v>1.1853045569241425E-6</v>
       </c>
       <c r="AT34" s="14">
         <f t="shared" si="18"/>
-        <v>3.0124922369167761E-6</v>
+        <v>2.6039994165981403E-6</v>
       </c>
     </row>
     <row r="35" spans="1:46">
@@ -3670,43 +3670,43 @@
       </c>
       <c r="U35" s="16">
         <f t="shared" ref="T35:AD43" si="19">_xlfn.NORM.DIST((_xlfn.NORM.INV(U5,0,1)-SQRT($F$17)*$AG$29)/(SQRT(1-$F$17)),0,1,TRUE)</f>
-        <v>0.96363921294845478</v>
+        <v>0.96193449805051445</v>
       </c>
       <c r="V35" s="16">
         <f t="shared" si="19"/>
-        <v>9.3815966867191736E-3</v>
+        <v>8.713542976990566E-3</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="19"/>
-        <v>8.3172564903795793E-3</v>
+        <v>7.7150224786106201E-3</v>
       </c>
       <c r="X35" s="16">
         <f t="shared" si="19"/>
-        <v>6.3920299708731757E-3</v>
+        <v>5.9127008967192257E-3</v>
       </c>
       <c r="Y35" s="16">
         <f t="shared" si="19"/>
-        <v>3.6721017783249202E-3</v>
+        <v>3.377394506023743E-3</v>
       </c>
       <c r="Z35" s="16">
         <f t="shared" si="19"/>
-        <v>6.6196151080926086E-4</v>
+        <v>5.9882994079497756E-4</v>
       </c>
       <c r="AA35" s="16">
         <f t="shared" si="19"/>
-        <v>8.8901061300051211E-5</v>
+        <v>7.8997626423753272E-5</v>
       </c>
       <c r="AB35" s="16">
         <f t="shared" si="19"/>
-        <v>4.805769765911691E-5</v>
+        <v>4.2481682222913445E-5</v>
       </c>
       <c r="AC35" s="16">
         <f t="shared" si="19"/>
-        <v>6.2108384308950544E-6</v>
+        <v>5.3992927384935668E-6</v>
       </c>
       <c r="AD35" s="16">
         <f t="shared" si="19"/>
-        <v>4.3709757288633436E-6</v>
+        <v>3.7893039735222828E-6</v>
       </c>
       <c r="AG35">
         <v>1.591337125620871</v>
@@ -3716,47 +3716,47 @@
       </c>
       <c r="AJ35" s="14">
         <f t="shared" ref="AJ35:AJ43" si="20">T35-U35</f>
-        <v>3.6360787051545218E-2</v>
+        <v>3.8065501949485547E-2</v>
       </c>
       <c r="AK35" s="14">
         <f t="shared" si="18"/>
-        <v>0.95425761626173555</v>
+        <v>0.95322095507352389</v>
       </c>
       <c r="AL35" s="14">
         <f t="shared" si="18"/>
-        <v>1.0643401963395943E-3</v>
+        <v>9.9852049837994596E-4</v>
       </c>
       <c r="AM35" s="14">
         <f t="shared" si="18"/>
-        <v>1.9252265195064035E-3</v>
+        <v>1.8023215818913944E-3</v>
       </c>
       <c r="AN35" s="14">
         <f t="shared" si="18"/>
-        <v>2.7199281925482555E-3</v>
+        <v>2.5353063906954827E-3</v>
       </c>
       <c r="AO35" s="14">
         <f t="shared" si="18"/>
-        <v>3.0101402675156595E-3</v>
+        <v>2.7785645652287656E-3</v>
       </c>
       <c r="AP35" s="14">
         <f t="shared" si="18"/>
-        <v>5.730604495092096E-4</v>
+        <v>5.1983231437122428E-4</v>
       </c>
       <c r="AQ35" s="14">
         <f t="shared" si="18"/>
-        <v>4.0843363640934301E-5</v>
+        <v>3.6515944200839827E-5</v>
       </c>
       <c r="AR35" s="14">
         <f t="shared" si="18"/>
-        <v>4.1846859228221856E-5</v>
+        <v>3.7082389484419876E-5</v>
       </c>
       <c r="AS35" s="14">
         <f t="shared" si="18"/>
-        <v>1.8398627020317108E-6</v>
+        <v>1.6099887649712839E-6</v>
       </c>
       <c r="AT35" s="14">
         <f t="shared" si="18"/>
-        <v>4.3709757288633436E-6</v>
+        <v>3.7893039735222828E-6</v>
       </c>
     </row>
     <row r="36" spans="1:46">
@@ -3777,43 +3777,43 @@
       </c>
       <c r="U36" s="16">
         <f t="shared" si="19"/>
-        <v>0.99266655444848639</v>
+        <v>0.99225066718154253</v>
       </c>
       <c r="V36" s="16">
         <f t="shared" si="19"/>
-        <v>0.95472109516538772</v>
+        <v>0.95267086204561624</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="19"/>
-        <v>7.3692643728898565E-3</v>
+        <v>6.8268812178809502E-3</v>
       </c>
       <c r="X36" s="16">
         <f t="shared" si="19"/>
-        <v>7.1406823547867275E-3</v>
+        <v>6.6129185020703763E-3</v>
       </c>
       <c r="Y36" s="16">
         <f t="shared" si="19"/>
-        <v>6.8838516645179527E-3</v>
+        <v>6.3726061098794244E-3</v>
       </c>
       <c r="Z36" s="16">
         <f t="shared" si="19"/>
-        <v>4.0455051162667033E-3</v>
+        <v>3.7244913173984789E-3</v>
       </c>
       <c r="AA36" s="16">
         <f t="shared" si="19"/>
-        <v>9.4677710956954462E-4</v>
+        <v>8.593521351279908E-4</v>
       </c>
       <c r="AB36" s="16">
         <f t="shared" si="19"/>
-        <v>1.5916639641609009E-4</v>
+        <v>1.4215108613341458E-4</v>
       </c>
       <c r="AC36" s="16">
         <f t="shared" si="19"/>
-        <v>5.8793043278690017E-5</v>
+        <v>5.2059885687978928E-5</v>
       </c>
       <c r="AD36" s="16">
         <f t="shared" si="19"/>
-        <v>8.544577800470267E-6</v>
+        <v>7.4469987302452434E-6</v>
       </c>
       <c r="AG36">
         <v>1.5809061523528063</v>
@@ -3823,47 +3823,47 @@
       </c>
       <c r="AJ36" s="14">
         <f t="shared" si="20"/>
-        <v>7.3334455515136066E-3</v>
+        <v>7.7493328184574661E-3</v>
       </c>
       <c r="AK36" s="14">
         <f t="shared" si="18"/>
-        <v>3.794545928309867E-2</v>
+        <v>3.9579805135926294E-2</v>
       </c>
       <c r="AL36" s="14">
         <f t="shared" si="18"/>
-        <v>0.94735183079249785</v>
+        <v>0.94584398082773524</v>
       </c>
       <c r="AM36" s="14">
         <f t="shared" si="18"/>
-        <v>2.2858201810312898E-4</v>
+        <v>2.1396271581057384E-4</v>
       </c>
       <c r="AN36" s="14">
         <f t="shared" si="18"/>
-        <v>2.5683069026877486E-4</v>
+        <v>2.4031239219095193E-4</v>
       </c>
       <c r="AO36" s="14">
         <f t="shared" si="18"/>
-        <v>2.8383465482512494E-3</v>
+        <v>2.6481147924809455E-3</v>
       </c>
       <c r="AP36" s="14">
         <f t="shared" si="18"/>
-        <v>3.0987280066971587E-3</v>
+        <v>2.8651391822704883E-3</v>
       </c>
       <c r="AQ36" s="14">
         <f t="shared" si="18"/>
-        <v>7.8761071315345448E-4</v>
+        <v>7.1720104899457618E-4</v>
       </c>
       <c r="AR36" s="14">
         <f t="shared" si="18"/>
-        <v>1.0037335313740007E-4</v>
+        <v>9.0091200445435656E-5</v>
       </c>
       <c r="AS36" s="14">
         <f t="shared" si="18"/>
-        <v>5.0248465478219748E-5</v>
+        <v>4.4612886957733685E-5</v>
       </c>
       <c r="AT36" s="14">
         <f t="shared" si="18"/>
-        <v>8.544577800470267E-6</v>
+        <v>7.4469987302452434E-6</v>
       </c>
     </row>
     <row r="37" spans="1:46">
@@ -3884,43 +3884,43 @@
       </c>
       <c r="U37" s="16">
         <f t="shared" si="19"/>
-        <v>0.99989564025539579</v>
+        <v>0.99988795472711478</v>
       </c>
       <c r="V37" s="16">
         <f t="shared" si="19"/>
-        <v>0.98092014622852308</v>
+        <v>0.97994333329049543</v>
       </c>
       <c r="W37" s="16">
         <f t="shared" si="19"/>
-        <v>0.94054794131559727</v>
+        <v>0.93798100559479225</v>
       </c>
       <c r="X37" s="16">
         <f t="shared" si="19"/>
-        <v>1.0100803950617725E-2</v>
+        <v>9.3890244083990135E-3</v>
       </c>
       <c r="Y37" s="16">
         <f t="shared" si="19"/>
-        <v>9.77151785284853E-3</v>
+        <v>9.079686330574599E-3</v>
       </c>
       <c r="Z37" s="16">
         <f t="shared" si="19"/>
-        <v>9.2943375256681563E-3</v>
+        <v>8.6316288066528146E-3</v>
       </c>
       <c r="AA37" s="16">
         <f t="shared" si="19"/>
-        <v>2.0105355442413728E-3</v>
+        <v>1.8381258070723633E-3</v>
       </c>
       <c r="AB37" s="16">
         <f t="shared" si="19"/>
-        <v>1.9456110440818325E-3</v>
+        <v>1.7781979255905263E-3</v>
       </c>
       <c r="AC37" s="16">
         <f t="shared" si="19"/>
-        <v>1.2378285881804672E-4</v>
+        <v>1.1030817260260396E-4</v>
       </c>
       <c r="AD37" s="16">
         <f t="shared" si="19"/>
-        <v>3.4926654244350296E-5</v>
+        <v>3.0791878380594433E-5</v>
       </c>
       <c r="AG37">
         <v>1.5816332684161791</v>
@@ -3930,47 +3930,47 @@
       </c>
       <c r="AJ37" s="14">
         <f t="shared" si="20"/>
-        <v>1.0435974460420994E-4</v>
+        <v>1.1204527288521948E-4</v>
       </c>
       <c r="AK37" s="14">
         <f t="shared" si="18"/>
-        <v>1.8975494026872708E-2</v>
+        <v>1.9944621436619347E-2</v>
       </c>
       <c r="AL37" s="14">
         <f t="shared" si="18"/>
-        <v>4.0372204912925813E-2</v>
+        <v>4.1962327695703183E-2</v>
       </c>
       <c r="AM37" s="14">
         <f t="shared" si="18"/>
-        <v>0.93044713736497953</v>
+        <v>0.92859198118639319</v>
       </c>
       <c r="AN37" s="14">
         <f t="shared" si="18"/>
-        <v>3.2928609776919533E-4</v>
+        <v>3.093380778244146E-4</v>
       </c>
       <c r="AO37" s="14">
         <f t="shared" si="18"/>
-        <v>4.7718032718037373E-4</v>
+        <v>4.480575239217844E-4</v>
       </c>
       <c r="AP37" s="14">
         <f t="shared" si="18"/>
-        <v>7.2838019814267831E-3</v>
+        <v>6.7935029995804513E-3</v>
       </c>
       <c r="AQ37" s="14">
         <f t="shared" si="18"/>
-        <v>6.4924500159540361E-5</v>
+        <v>5.9927881481836942E-5</v>
       </c>
       <c r="AR37" s="14">
         <f t="shared" si="18"/>
-        <v>1.8218281852637858E-3</v>
+        <v>1.6678897529879223E-3</v>
       </c>
       <c r="AS37" s="14">
         <f t="shared" si="18"/>
-        <v>8.885620457369642E-5</v>
+        <v>7.9516294222009538E-5</v>
       </c>
       <c r="AT37" s="14">
         <f t="shared" si="18"/>
-        <v>3.4926654244350296E-5</v>
+        <v>3.0791878380594433E-5</v>
       </c>
     </row>
     <row r="38" spans="1:46">
@@ -3982,43 +3982,43 @@
       </c>
       <c r="U38" s="16">
         <f t="shared" si="19"/>
-        <v>0.99989907941608869</v>
+        <v>0.99989163703544415</v>
       </c>
       <c r="V38" s="16">
         <f t="shared" si="19"/>
-        <v>0.98543255281429321</v>
+        <v>0.98466269729804801</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="19"/>
-        <v>0.97344149710966088</v>
+        <v>0.97213870597162411</v>
       </c>
       <c r="X38" s="16">
         <f t="shared" si="19"/>
-        <v>0.94389907509332482</v>
+        <v>0.94145105903448567</v>
       </c>
       <c r="Y38" s="16">
         <f t="shared" si="19"/>
-        <v>1.1865274259295386E-2</v>
+        <v>1.1048523227335131E-2</v>
       </c>
       <c r="Z38" s="16">
         <f t="shared" si="19"/>
-        <v>1.1405758272983419E-2</v>
+        <v>1.061604701618653E-2</v>
       </c>
       <c r="AA38" s="16">
         <f t="shared" si="19"/>
-        <v>3.1564880034676626E-3</v>
+        <v>2.8987369366508041E-3</v>
       </c>
       <c r="AB38" s="16">
         <f t="shared" si="19"/>
-        <v>2.890117604711139E-3</v>
+        <v>2.6517762716850679E-3</v>
       </c>
       <c r="AC38" s="16">
         <f t="shared" si="19"/>
-        <v>1.7592971479038331E-4</v>
+        <v>1.5726041505960341E-4</v>
       </c>
       <c r="AD38" s="16">
         <f t="shared" si="19"/>
-        <v>5.5203225128981714E-5</v>
+        <v>4.8855159822749869E-5</v>
       </c>
       <c r="AG38">
         <v>1.628653758559331</v>
@@ -4028,47 +4028,47 @@
       </c>
       <c r="AJ38" s="14">
         <f t="shared" si="20"/>
-        <v>1.0092058391131253E-4</v>
+        <v>1.0836296455585259E-4</v>
       </c>
       <c r="AK38" s="14">
         <f t="shared" si="18"/>
-        <v>1.4466526601795482E-2</v>
+        <v>1.5228939737396141E-2</v>
       </c>
       <c r="AL38" s="14">
         <f t="shared" si="18"/>
-        <v>1.1991055704632325E-2</v>
+        <v>1.25239913264239E-2</v>
       </c>
       <c r="AM38" s="14">
         <f t="shared" si="18"/>
-        <v>2.9542422016336056E-2</v>
+        <v>3.0687646937138435E-2</v>
       </c>
       <c r="AN38" s="14">
         <f t="shared" si="18"/>
-        <v>0.93203380083402942</v>
+        <v>0.93040253580715049</v>
       </c>
       <c r="AO38" s="14">
         <f t="shared" si="18"/>
-        <v>4.5951598631196675E-4</v>
+        <v>4.3247621114860142E-4</v>
       </c>
       <c r="AP38" s="14">
         <f t="shared" si="18"/>
-        <v>8.2492702695157565E-3</v>
+        <v>7.717310079535725E-3</v>
       </c>
       <c r="AQ38" s="14">
         <f t="shared" si="18"/>
-        <v>2.6637039875652361E-4</v>
+        <v>2.4696066496573618E-4</v>
       </c>
       <c r="AR38" s="14">
         <f t="shared" si="18"/>
-        <v>2.7141878899207559E-3</v>
+        <v>2.4945158566254647E-3</v>
       </c>
       <c r="AS38" s="14">
         <f t="shared" si="18"/>
-        <v>1.207264896614016E-4</v>
+        <v>1.0840525523685355E-4</v>
       </c>
       <c r="AT38" s="14">
         <f t="shared" si="18"/>
-        <v>5.5203225128981714E-5</v>
+        <v>4.8855159822749869E-5</v>
       </c>
     </row>
     <row r="39" spans="1:46">
@@ -4080,43 +4080,43 @@
       </c>
       <c r="U39" s="16">
         <f t="shared" si="19"/>
-        <v>0.99986995239158338</v>
+        <v>0.99986046207457546</v>
       </c>
       <c r="V39" s="16">
         <f t="shared" si="19"/>
-        <v>0.99837343929837785</v>
+        <v>0.99826958357597706</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="19"/>
-        <v>0.97736513914736722</v>
+        <v>0.97623098889944271</v>
       </c>
       <c r="X39" s="16">
         <f t="shared" si="19"/>
-        <v>0.97486893107849781</v>
+        <v>0.97362692364708836</v>
       </c>
       <c r="Y39" s="16">
         <f t="shared" si="19"/>
-        <v>0.95373364988816289</v>
+        <v>0.95164619584387522</v>
       </c>
       <c r="Z39" s="16">
         <f t="shared" si="19"/>
-        <v>1.7118662465733965E-2</v>
+        <v>1.6005426743814485E-2</v>
       </c>
       <c r="AA39" s="16">
         <f t="shared" si="19"/>
-        <v>1.5834221973296536E-2</v>
+        <v>1.4791523002447132E-2</v>
       </c>
       <c r="AB39" s="16">
         <f t="shared" si="19"/>
-        <v>6.1437135639136843E-3</v>
+        <v>5.6806474656269862E-3</v>
       </c>
       <c r="AC39" s="16">
         <f t="shared" si="19"/>
-        <v>1.7528425194019875E-3</v>
+        <v>1.6003887266445515E-3</v>
       </c>
       <c r="AD39" s="16">
         <f t="shared" si="19"/>
-        <v>1.3713299986386817E-4</v>
+        <v>1.2231389274843961E-4</v>
       </c>
       <c r="AG39">
         <v>1.628023761968737</v>
@@ -4126,47 +4126,47 @@
       </c>
       <c r="AJ39" s="14">
         <f t="shared" si="20"/>
-        <v>1.3004760841661689E-4</v>
+        <v>1.3953792542453769E-4</v>
       </c>
       <c r="AK39" s="14">
         <f t="shared" si="18"/>
-        <v>1.4965130932055315E-3</v>
+        <v>1.5908784985984026E-3</v>
       </c>
       <c r="AL39" s="14">
         <f t="shared" si="18"/>
-        <v>2.1008300151010628E-2</v>
+        <v>2.2038594676534351E-2</v>
       </c>
       <c r="AM39" s="14">
         <f t="shared" si="18"/>
-        <v>2.4962080688694099E-3</v>
+        <v>2.6040652523543484E-3</v>
       </c>
       <c r="AN39" s="14">
         <f t="shared" si="18"/>
-        <v>2.113528119033492E-2</v>
+        <v>2.198072780321314E-2</v>
       </c>
       <c r="AO39" s="14">
         <f t="shared" si="18"/>
-        <v>0.93661498742242888</v>
+        <v>0.93564076910006078</v>
       </c>
       <c r="AP39" s="14">
         <f t="shared" si="18"/>
-        <v>1.2844404924374289E-3</v>
+        <v>1.2139037413673535E-3</v>
       </c>
       <c r="AQ39" s="14">
         <f t="shared" si="18"/>
-        <v>9.690508409382851E-3</v>
+        <v>9.1108755368201448E-3</v>
       </c>
       <c r="AR39" s="14">
         <f t="shared" si="18"/>
-        <v>4.3908710445116966E-3</v>
+        <v>4.0802587389824349E-3</v>
       </c>
       <c r="AS39" s="14">
         <f t="shared" si="18"/>
-        <v>1.6157095195381192E-3</v>
+        <v>1.4780748338961119E-3</v>
       </c>
       <c r="AT39" s="14">
         <f t="shared" si="18"/>
-        <v>1.3713299986386817E-4</v>
+        <v>1.2231389274843961E-4</v>
       </c>
     </row>
     <row r="40" spans="1:46">
@@ -4178,43 +4178,43 @@
       </c>
       <c r="U40" s="16">
         <f t="shared" si="19"/>
-        <v>0.99992847465322154</v>
+        <v>0.9999231278653018</v>
       </c>
       <c r="V40" s="16">
         <f t="shared" si="19"/>
-        <v>0.99839839538086017</v>
+        <v>0.99829602823261709</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="19"/>
-        <v>0.99460660423912894</v>
+        <v>0.99429215252119285</v>
       </c>
       <c r="X40" s="16">
         <f t="shared" si="19"/>
-        <v>0.98190327438880842</v>
+        <v>0.98097081615412296</v>
       </c>
       <c r="Y40" s="16">
         <f t="shared" si="19"/>
-        <v>0.9690124184949207</v>
+        <v>0.96752484095707969</v>
       </c>
       <c r="Z40" s="16">
         <f t="shared" si="19"/>
-        <v>0.946413366394661</v>
+        <v>0.94405584598159875</v>
       </c>
       <c r="AA40" s="16">
         <f t="shared" si="19"/>
-        <v>3.0215882154628684E-2</v>
+        <v>2.8437465638100998E-2</v>
       </c>
       <c r="AB40" s="16">
         <f t="shared" si="19"/>
-        <v>2.8811145231895343E-2</v>
+        <v>2.7100094801750706E-2</v>
       </c>
       <c r="AC40" s="16">
         <f t="shared" si="19"/>
-        <v>1.2388573163719331E-2</v>
+        <v>1.1541269513710232E-2</v>
       </c>
       <c r="AD40" s="16">
         <f t="shared" si="19"/>
-        <v>5.6531208745417053E-4</v>
+        <v>5.1065284846654876E-4</v>
       </c>
       <c r="AG40">
         <v>1.6353772539205338</v>
@@ -4224,47 +4224,47 @@
       </c>
       <c r="AJ40" s="14">
         <f t="shared" si="20"/>
-        <v>7.1525346778456012E-5</v>
+        <v>7.6872134698202643E-5</v>
       </c>
       <c r="AK40" s="14">
         <f t="shared" si="18"/>
-        <v>1.5300792723613732E-3</v>
+        <v>1.6270996326847031E-3</v>
       </c>
       <c r="AL40" s="14">
         <f t="shared" si="18"/>
-        <v>3.7917911417312267E-3</v>
+        <v>4.0038757114242429E-3</v>
       </c>
       <c r="AM40" s="14">
         <f t="shared" si="18"/>
-        <v>1.2703329850320522E-2</v>
+        <v>1.3321336367069891E-2</v>
       </c>
       <c r="AN40" s="14">
         <f t="shared" si="18"/>
-        <v>1.289085589388772E-2</v>
+        <v>1.3445975197043269E-2</v>
       </c>
       <c r="AO40" s="14">
         <f t="shared" si="18"/>
-        <v>2.2599052100259698E-2</v>
+        <v>2.3468994975480939E-2</v>
       </c>
       <c r="AP40" s="14">
         <f t="shared" si="18"/>
-        <v>0.91619748424003233</v>
+        <v>0.91561838034349774</v>
       </c>
       <c r="AQ40" s="14">
         <f t="shared" si="18"/>
-        <v>1.4047369227333413E-3</v>
+        <v>1.337370836350292E-3</v>
       </c>
       <c r="AR40" s="14">
         <f t="shared" si="18"/>
-        <v>1.642257206817601E-2</v>
+        <v>1.5558825288040474E-2</v>
       </c>
       <c r="AS40" s="14">
         <f t="shared" si="18"/>
-        <v>1.1823261076265161E-2</v>
+        <v>1.1030616665243683E-2</v>
       </c>
       <c r="AT40" s="14">
         <f t="shared" si="18"/>
-        <v>5.6531208745417053E-4</v>
+        <v>5.1065284846654876E-4</v>
       </c>
     </row>
     <row r="41" spans="1:46">
@@ -4276,43 +4276,43 @@
       </c>
       <c r="U41" s="16">
         <f t="shared" si="19"/>
-        <v>0.99992847465322154</v>
+        <v>0.9999231278653018</v>
       </c>
       <c r="V41" s="16">
         <f t="shared" si="19"/>
-        <v>0.99928902145393272</v>
+        <v>0.99924126585250539</v>
       </c>
       <c r="W41" s="16">
         <f t="shared" si="19"/>
-        <v>0.99028367018363284</v>
+        <v>0.98974750672408818</v>
       </c>
       <c r="X41" s="16">
         <f t="shared" si="19"/>
-        <v>0.98867110105652911</v>
+        <v>0.98805576027866537</v>
       </c>
       <c r="Y41" s="16">
         <f t="shared" si="19"/>
-        <v>0.98699541624295628</v>
+        <v>0.98629943045353941</v>
       </c>
       <c r="Z41" s="16">
         <f t="shared" si="19"/>
-        <v>0.92883573425805954</v>
+        <v>0.92586738302612059</v>
       </c>
       <c r="AA41" s="16">
         <f t="shared" si="19"/>
-        <v>0.88310537720133242</v>
+        <v>0.87874581337281721</v>
       </c>
       <c r="AB41" s="16">
         <f t="shared" si="19"/>
-        <v>5.6759835871737947E-2</v>
+        <v>5.3834930159646043E-2</v>
       </c>
       <c r="AC41" s="16">
         <f t="shared" si="19"/>
-        <v>4.5534012526838925E-2</v>
+        <v>4.3068049775010907E-2</v>
       </c>
       <c r="AD41" s="16">
         <f t="shared" si="19"/>
-        <v>2.0737236339031973E-3</v>
+        <v>1.8964700742157214E-3</v>
       </c>
       <c r="AG41">
         <v>1.6425961667717393</v>
@@ -4322,47 +4322,47 @@
       </c>
       <c r="AJ41" s="14">
         <f t="shared" si="20"/>
-        <v>7.1525346778456012E-5</v>
+        <v>7.6872134698202643E-5</v>
       </c>
       <c r="AK41" s="14">
         <f t="shared" si="18"/>
-        <v>6.3945319928881972E-4</v>
+        <v>6.8186201279640812E-4</v>
       </c>
       <c r="AL41" s="14">
         <f t="shared" si="18"/>
-        <v>9.0053512702998884E-3</v>
+        <v>9.4937591284172118E-3</v>
       </c>
       <c r="AM41" s="14">
         <f t="shared" si="18"/>
-        <v>1.6125691271037246E-3</v>
+        <v>1.6917464454228037E-3</v>
       </c>
       <c r="AN41" s="14">
         <f t="shared" si="18"/>
-        <v>1.6756848135728308E-3</v>
+        <v>1.7563298251259685E-3</v>
       </c>
       <c r="AO41" s="14">
         <f t="shared" si="18"/>
-        <v>5.8159681984896738E-2</v>
+        <v>6.0432047427418811E-2</v>
       </c>
       <c r="AP41" s="14">
         <f t="shared" si="18"/>
-        <v>4.5730357056727122E-2</v>
+        <v>4.7121569653303386E-2</v>
       </c>
       <c r="AQ41" s="14">
         <f t="shared" si="18"/>
-        <v>0.82634554132959448</v>
+        <v>0.82491088321317119</v>
       </c>
       <c r="AR41" s="14">
         <f t="shared" si="18"/>
-        <v>1.1225823344899022E-2</v>
+        <v>1.0766880384635136E-2</v>
       </c>
       <c r="AS41" s="14">
         <f t="shared" si="18"/>
-        <v>4.3460288892935725E-2</v>
+        <v>4.1171579700795186E-2</v>
       </c>
       <c r="AT41" s="14">
         <f t="shared" si="18"/>
-        <v>2.0737236339031973E-3</v>
+        <v>1.8964700742157214E-3</v>
       </c>
     </row>
     <row r="42" spans="1:46">
@@ -4374,90 +4374,90 @@
       </c>
       <c r="U42" s="16">
         <f t="shared" si="19"/>
-        <v>0.99992673648084496</v>
+        <v>0.99992126481820642</v>
       </c>
       <c r="V42" s="16">
         <f t="shared" si="19"/>
-        <v>0.99881738457633917</v>
+        <v>0.99874031116741147</v>
       </c>
       <c r="W42" s="16">
         <f t="shared" si="19"/>
-        <v>0.99679250322646484</v>
+        <v>0.9965973960727641</v>
       </c>
       <c r="X42" s="16">
         <f t="shared" si="19"/>
-        <v>0.98778270438276639</v>
+        <v>0.98712441289145225</v>
       </c>
       <c r="Y42" s="16">
         <f t="shared" si="19"/>
-        <v>0.97459751389643801</v>
+        <v>0.97334390021442141</v>
       </c>
       <c r="Z42" s="16">
         <f t="shared" si="19"/>
-        <v>0.94203962760791182</v>
+        <v>0.93952539150295689</v>
       </c>
       <c r="AA42" s="16">
         <f t="shared" si="19"/>
-        <v>0.83088567567039773</v>
+        <v>0.82520832786571519</v>
       </c>
       <c r="AB42" s="16">
         <f t="shared" si="19"/>
-        <v>0.80657121034055257</v>
+        <v>0.80036191581497085</v>
       </c>
       <c r="AC42" s="16">
         <f t="shared" si="19"/>
-        <v>0.10576326501362381</v>
+        <v>0.10114547416844712</v>
       </c>
       <c r="AD42" s="16">
         <f t="shared" si="19"/>
-        <v>1.1864581277301627E-2</v>
+        <v>1.104787087262186E-2</v>
       </c>
       <c r="AI42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AJ42" s="14">
         <f t="shared" si="20"/>
-        <v>7.3263519155042367E-5</v>
+        <v>7.8735181793576636E-5</v>
       </c>
       <c r="AK42" s="14">
         <f t="shared" si="18"/>
-        <v>1.1093519045057842E-3</v>
+        <v>1.1809536507949581E-3</v>
       </c>
       <c r="AL42" s="14">
         <f t="shared" si="18"/>
-        <v>2.0248813498743301E-3</v>
+        <v>2.1429150946473685E-3</v>
       </c>
       <c r="AM42" s="14">
         <f t="shared" si="18"/>
-        <v>9.0097988436984577E-3</v>
+        <v>9.4729831813118448E-3</v>
       </c>
       <c r="AN42" s="14">
         <f t="shared" si="18"/>
-        <v>1.318519048632838E-2</v>
+        <v>1.3780512677030843E-2</v>
       </c>
       <c r="AO42" s="14">
         <f t="shared" si="18"/>
-        <v>3.2557886288526183E-2</v>
+        <v>3.3818508711464523E-2</v>
       </c>
       <c r="AP42" s="14">
         <f t="shared" si="18"/>
-        <v>0.11115395193751409</v>
+        <v>0.1143170636372417</v>
       </c>
       <c r="AQ42" s="14">
         <f t="shared" si="18"/>
-        <v>2.4314465329845159E-2</v>
+        <v>2.4846412050744338E-2</v>
       </c>
       <c r="AR42" s="14">
         <f t="shared" si="18"/>
-        <v>0.70080794532692881</v>
+        <v>0.69921644164652375</v>
       </c>
       <c r="AS42" s="14">
         <f t="shared" si="18"/>
-        <v>9.389868373632218E-2</v>
+        <v>9.0097603295825252E-2</v>
       </c>
       <c r="AT42" s="14">
         <f t="shared" si="18"/>
-        <v>1.1864581277301627E-2</v>
+        <v>1.104787087262186E-2</v>
       </c>
     </row>
     <row r="43" spans="1:46">
@@ -4469,90 +4469,90 @@
       </c>
       <c r="U43" s="16">
         <f t="shared" si="19"/>
-        <v>0.99998507932673253</v>
+        <v>0.99998390236291734</v>
       </c>
       <c r="V43" s="16">
         <f t="shared" si="19"/>
-        <v>0.99982410333184513</v>
+        <v>0.99981143364304614</v>
       </c>
       <c r="W43" s="16">
         <f t="shared" si="19"/>
-        <v>0.99894240644335863</v>
+        <v>0.99887300494396325</v>
       </c>
       <c r="X43" s="16">
         <f t="shared" si="19"/>
-        <v>0.99692141719306426</v>
+        <v>0.99673356349034403</v>
       </c>
       <c r="Y43" s="16">
         <f t="shared" si="19"/>
-        <v>0.99399252743517463</v>
+        <v>0.9936455762749411</v>
       </c>
       <c r="Z43" s="16">
         <f t="shared" si="19"/>
-        <v>0.97282865284974329</v>
+        <v>0.97149995572257619</v>
       </c>
       <c r="AA43" s="16">
         <f t="shared" si="19"/>
-        <v>0.85405198602332588</v>
+        <v>0.84892795976831548</v>
       </c>
       <c r="AB43" s="16">
         <f t="shared" si="19"/>
-        <v>0.74921097865002273</v>
+        <v>0.74192632831954464</v>
       </c>
       <c r="AC43" s="16">
         <f t="shared" si="19"/>
-        <v>0.61747125427799854</v>
+        <v>0.60855621169630725</v>
       </c>
       <c r="AD43" s="16">
         <f t="shared" si="19"/>
-        <v>0.14288803260009361</v>
+        <v>0.13723505859467364</v>
       </c>
       <c r="AI43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AJ43" s="14">
         <f t="shared" si="20"/>
-        <v>1.4920673267471152E-5</v>
+        <v>1.6097637082657101E-5</v>
       </c>
       <c r="AK43" s="14">
         <f t="shared" si="18"/>
-        <v>1.6097599488740233E-4</v>
+        <v>1.7246871987119938E-4</v>
       </c>
       <c r="AL43" s="14">
         <f t="shared" si="18"/>
-        <v>8.8169688848649397E-4</v>
+        <v>9.3842869908289384E-4</v>
       </c>
       <c r="AM43" s="14">
         <f t="shared" si="18"/>
-        <v>2.0209892502943694E-3</v>
+        <v>2.1394414536192174E-3</v>
       </c>
       <c r="AN43" s="14">
         <f t="shared" si="18"/>
-        <v>2.92888975788963E-3</v>
+        <v>3.087987215402932E-3</v>
       </c>
       <c r="AO43" s="14">
         <f t="shared" si="18"/>
-        <v>2.1163874585431341E-2</v>
+        <v>2.2145620552364909E-2</v>
       </c>
       <c r="AP43" s="14">
         <f t="shared" si="18"/>
-        <v>0.11877666682641741</v>
+        <v>0.12257199595426072</v>
       </c>
       <c r="AQ43" s="14">
         <f t="shared" si="18"/>
-        <v>0.10484100737330315</v>
+        <v>0.10700163144877084</v>
       </c>
       <c r="AR43" s="14">
         <f t="shared" si="18"/>
-        <v>0.13173972437202419</v>
+        <v>0.13337011662323739</v>
       </c>
       <c r="AS43" s="14">
         <f t="shared" si="18"/>
-        <v>0.4745832216779049</v>
+        <v>0.47132115310163358</v>
       </c>
       <c r="AT43" s="14">
         <f t="shared" si="18"/>
-        <v>0.14288803260009361</v>
+        <v>0.13723505859467364</v>
       </c>
     </row>
     <row r="47" spans="1:46">
@@ -4640,90 +4640,90 @@
       </c>
       <c r="U49" s="16">
         <f>_xlfn.NORM.DIST((_xlfn.NORM.INV(U4,0,1)-SQRT($F$17)*$AG$41)/(SQRT(1-$F$17)),0,1,TRUE)</f>
-        <v>1.9848052041893886E-2</v>
+        <v>1.8581168094481501E-2</v>
       </c>
       <c r="V49" s="16">
         <f t="shared" ref="V49:AD49" si="21">_xlfn.NORM.DIST((_xlfn.NORM.INV(V4,0,1)-SQRT($F$17)*$AG$41)/(SQRT(1-$F$17)),0,1,TRUE)</f>
-        <v>9.4410636394217425E-3</v>
+        <v>8.7655189562000965E-3</v>
       </c>
       <c r="W49" s="16">
         <f t="shared" si="21"/>
-        <v>1.7644348833701772E-3</v>
+        <v>1.6102314198771707E-3</v>
       </c>
       <c r="X49" s="16">
         <f t="shared" si="21"/>
-        <v>3.7558570196307979E-4</v>
+        <v>3.3780659195776613E-4</v>
       </c>
       <c r="Y49" s="16">
         <f t="shared" si="21"/>
-        <v>2.7745747024441144E-4</v>
+        <v>2.4886688274330476E-4</v>
       </c>
       <c r="Z49" s="16">
         <f t="shared" si="21"/>
-        <v>7.137952881970269E-5</v>
+        <v>6.3267336775848842E-5</v>
       </c>
       <c r="AA49" s="16">
         <f t="shared" si="21"/>
-        <v>3.6264042886612519E-5</v>
+        <v>3.1959046416873637E-5</v>
       </c>
       <c r="AB49" s="16">
         <f t="shared" si="21"/>
-        <v>1.5143342458773045E-5</v>
+        <v>1.3249671186312181E-5</v>
       </c>
       <c r="AC49" s="16">
         <f t="shared" si="21"/>
-        <v>4.348715632121464E-6</v>
+        <v>3.7669919936240356E-6</v>
       </c>
       <c r="AD49" s="16">
         <f t="shared" si="21"/>
-        <v>2.9968997228992213E-6</v>
+        <v>2.5884172419581059E-6</v>
       </c>
       <c r="AI49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AJ49" s="14">
         <f>T49-U49</f>
-        <v>0.98015194795810612</v>
+        <v>0.98141883190551849</v>
       </c>
       <c r="AK49" s="14">
         <f t="shared" ref="AK49:AT58" si="22">U49-V49</f>
-        <v>1.0406988402472143E-2</v>
+        <v>9.8156491382814046E-3</v>
       </c>
       <c r="AL49" s="14">
         <f t="shared" si="22"/>
-        <v>7.6766287560515655E-3</v>
+        <v>7.1552875363229259E-3</v>
       </c>
       <c r="AM49" s="14">
         <f t="shared" si="22"/>
-        <v>1.3888491814070974E-3</v>
+        <v>1.2724248279194046E-3</v>
       </c>
       <c r="AN49" s="14">
         <f t="shared" si="22"/>
-        <v>9.8128231718668348E-5</v>
+        <v>8.8939709214461366E-5</v>
       </c>
       <c r="AO49" s="14">
         <f t="shared" si="22"/>
-        <v>2.0607794142470874E-4</v>
+        <v>1.8559954596745592E-4</v>
       </c>
       <c r="AP49" s="14">
         <f t="shared" si="22"/>
-        <v>3.5115485933090172E-5</v>
+        <v>3.1308290358975205E-5</v>
       </c>
       <c r="AQ49" s="14">
         <f t="shared" si="22"/>
-        <v>2.1120700427839475E-5</v>
+        <v>1.8709375230561456E-5</v>
       </c>
       <c r="AR49" s="14">
         <f t="shared" si="22"/>
-        <v>1.0794626826651581E-5</v>
+        <v>9.4826791926881463E-6</v>
       </c>
       <c r="AS49" s="14">
         <f t="shared" si="22"/>
-        <v>1.3518159092222427E-6</v>
+        <v>1.1785747516659297E-6</v>
       </c>
       <c r="AT49" s="14">
         <f t="shared" si="22"/>
-        <v>2.9968997228992213E-6</v>
+        <v>2.5884172419581059E-6</v>
       </c>
     </row>
     <row r="50" spans="19:46">
@@ -4735,90 +4735,90 @@
       </c>
       <c r="U50" s="16">
         <f t="shared" ref="U50:AD58" si="23">_xlfn.NORM.DIST((_xlfn.NORM.INV(U5,0,1)-SQRT($F$17)*$AG$41)/(SQRT(1-$F$17)),0,1,TRUE)</f>
-        <v>0.96355164829995521</v>
+        <v>0.96183000020320186</v>
       </c>
       <c r="V50" s="16">
         <f t="shared" si="23"/>
-        <v>9.3539743292930903E-3</v>
+        <v>8.6837897503551989E-3</v>
       </c>
       <c r="W50" s="16">
         <f t="shared" si="23"/>
-        <v>8.2924014146344219E-3</v>
+        <v>7.688287121306289E-3</v>
       </c>
       <c r="X50" s="16">
         <f t="shared" si="23"/>
-        <v>6.3723244190688486E-3</v>
+        <v>5.8915677792556716E-3</v>
       </c>
       <c r="Y50" s="16">
         <f t="shared" si="23"/>
-        <v>3.6600793636524451E-3</v>
+        <v>3.3645793342789729E-3</v>
       </c>
       <c r="Z50" s="16">
         <f t="shared" si="23"/>
-        <v>6.5943852089531422E-4</v>
+        <v>5.9618713562544E-4</v>
       </c>
       <c r="AA50" s="16">
         <f t="shared" si="23"/>
-        <v>8.8512977529843173E-5</v>
+        <v>7.8598607467521159E-5</v>
       </c>
       <c r="AB50" s="16">
         <f t="shared" si="23"/>
-        <v>4.7840350023052232E-5</v>
+        <v>4.2259414791248837E-5</v>
       </c>
       <c r="AC50" s="16">
         <f t="shared" si="23"/>
-        <v>6.17970379629899E-6</v>
+        <v>5.3679964449625322E-6</v>
       </c>
       <c r="AD50" s="16">
         <f t="shared" si="23"/>
-        <v>4.348715632121464E-6</v>
+        <v>3.7669919936240356E-6</v>
       </c>
       <c r="AI50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AJ50" s="14">
         <f t="shared" ref="AJ50:AJ59" si="24">T50-U50</f>
-        <v>3.644835170004479E-2</v>
+        <v>3.8169999796798137E-2</v>
       </c>
       <c r="AK50" s="14">
         <f t="shared" si="22"/>
-        <v>0.95419767397066213</v>
+        <v>0.95314621045284664</v>
       </c>
       <c r="AL50" s="14">
         <f t="shared" si="22"/>
-        <v>1.0615729146586685E-3</v>
+        <v>9.9550262904890986E-4</v>
       </c>
       <c r="AM50" s="14">
         <f t="shared" si="22"/>
-        <v>1.9200769955655733E-3</v>
+        <v>1.7967193420506174E-3</v>
       </c>
       <c r="AN50" s="14">
         <f t="shared" si="22"/>
-        <v>2.7122450554164035E-3</v>
+        <v>2.5269884449766987E-3</v>
       </c>
       <c r="AO50" s="14">
         <f t="shared" si="22"/>
-        <v>3.0006408427571307E-3</v>
+        <v>2.768392198653533E-3</v>
       </c>
       <c r="AP50" s="14">
         <f t="shared" si="22"/>
-        <v>5.7092554336547101E-4</v>
+        <v>5.175885281579188E-4</v>
       </c>
       <c r="AQ50" s="14">
         <f t="shared" si="22"/>
-        <v>4.067262750679094E-5</v>
+        <v>3.6339192676272322E-5</v>
       </c>
       <c r="AR50" s="14">
         <f t="shared" si="22"/>
-        <v>4.1660646226753239E-5</v>
+        <v>3.6891418346286306E-5</v>
       </c>
       <c r="AS50" s="14">
         <f t="shared" si="22"/>
-        <v>1.830988164177526E-6</v>
+        <v>1.6010044513384965E-6</v>
       </c>
       <c r="AT50" s="14">
         <f t="shared" si="22"/>
-        <v>4.348715632121464E-6</v>
+        <v>3.7669919936240356E-6</v>
       </c>
     </row>
     <row r="51" spans="19:46">
@@ -4830,90 +4830,90 @@
       </c>
       <c r="U51" s="16">
         <f t="shared" si="23"/>
-        <v>0.99264424619655345</v>
+        <v>0.9922237451241549</v>
       </c>
       <c r="V51" s="16">
         <f t="shared" si="23"/>
-        <v>0.95461647307367703</v>
+        <v>0.9525462437390404</v>
       </c>
       <c r="W51" s="16">
         <f t="shared" si="23"/>
-        <v>7.3469200026031268E-3</v>
+        <v>6.8028796375404965E-3</v>
       </c>
       <c r="X51" s="16">
         <f t="shared" si="23"/>
-        <v>7.1189503942054007E-3</v>
+        <v>6.589583082892243E-3</v>
       </c>
       <c r="Y51" s="16">
         <f t="shared" si="23"/>
-        <v>6.8628112407227472E-3</v>
+        <v>6.3500225981815298E-3</v>
       </c>
       <c r="Z51" s="16">
         <f t="shared" si="23"/>
-        <v>4.0323924448830263E-3</v>
+        <v>3.7104993838421138E-3</v>
       </c>
       <c r="AA51" s="16">
         <f t="shared" si="23"/>
-        <v>9.432694268340599E-4</v>
+        <v>8.5566497305479138E-4</v>
       </c>
       <c r="AB51" s="16">
         <f t="shared" si="23"/>
-        <v>1.5849607202731756E-4</v>
+        <v>1.4145825663557034E-4</v>
       </c>
       <c r="AC51" s="16">
         <f t="shared" si="23"/>
-        <v>5.8530141814488033E-5</v>
+        <v>5.1790560175508665E-5</v>
       </c>
       <c r="AD51" s="16">
         <f t="shared" si="23"/>
-        <v>8.5023719350966817E-6</v>
+        <v>7.4044627316104342E-6</v>
       </c>
       <c r="AI51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AJ51" s="14">
         <f t="shared" si="24"/>
-        <v>7.3557538034465519E-3</v>
+        <v>7.7762548758451011E-3</v>
       </c>
       <c r="AK51" s="14">
         <f t="shared" si="22"/>
-        <v>3.8027773122876418E-2</v>
+        <v>3.96775013851145E-2</v>
       </c>
       <c r="AL51" s="14">
         <f t="shared" si="22"/>
-        <v>0.94726955307107386</v>
+        <v>0.94574336410149995</v>
       </c>
       <c r="AM51" s="14">
         <f t="shared" si="22"/>
-        <v>2.2796960839772604E-4</v>
+        <v>2.1329655464825351E-4</v>
       </c>
       <c r="AN51" s="14">
         <f t="shared" si="22"/>
-        <v>2.5613915348265352E-4</v>
+        <v>2.3956048471071318E-4</v>
       </c>
       <c r="AO51" s="14">
         <f t="shared" si="22"/>
-        <v>2.8304187958397209E-3</v>
+        <v>2.639523214339416E-3</v>
       </c>
       <c r="AP51" s="14">
         <f t="shared" si="22"/>
-        <v>3.0891230180489664E-3</v>
+        <v>2.8548344107873222E-3</v>
       </c>
       <c r="AQ51" s="14">
         <f t="shared" si="22"/>
-        <v>7.8477335480674237E-4</v>
+        <v>7.1420671641922104E-4</v>
       </c>
       <c r="AR51" s="14">
         <f t="shared" si="22"/>
-        <v>9.996593021282953E-5</v>
+        <v>8.9667696460061667E-5</v>
       </c>
       <c r="AS51" s="14">
         <f t="shared" si="22"/>
-        <v>5.0027769879391352E-5</v>
+        <v>4.4386097443898231E-5</v>
       </c>
       <c r="AT51" s="14">
         <f t="shared" si="22"/>
-        <v>8.5023719350966817E-6</v>
+        <v>7.4044627316104342E-6</v>
       </c>
     </row>
     <row r="52" spans="19:46">
@@ -4925,90 +4925,90 @@
       </c>
       <c r="U52" s="16">
         <f t="shared" si="23"/>
-        <v>0.9998951872176719</v>
+        <v>0.99988739792662729</v>
       </c>
       <c r="V52" s="16">
         <f t="shared" si="23"/>
-        <v>0.98086904370635009</v>
+        <v>0.97988204364803744</v>
       </c>
       <c r="W52" s="16">
         <f t="shared" si="23"/>
-        <v>0.94041805650235288</v>
+        <v>0.9378266838505176</v>
       </c>
       <c r="X52" s="16">
         <f t="shared" si="23"/>
-        <v>1.0071339843423855E-2</v>
+        <v>9.3572601059385418E-3</v>
       </c>
       <c r="Y52" s="16">
         <f t="shared" si="23"/>
-        <v>9.7428942878516594E-3</v>
+        <v>9.0488400913422209E-3</v>
       </c>
       <c r="Z52" s="16">
         <f t="shared" si="23"/>
-        <v>9.26694012078981E-3</v>
+        <v>8.6021210780296512E-3</v>
       </c>
       <c r="AA52" s="16">
         <f t="shared" si="23"/>
-        <v>2.0035564057163447E-3</v>
+        <v>1.8307335318023985E-3</v>
       </c>
       <c r="AB52" s="16">
         <f t="shared" si="23"/>
-        <v>1.9388369080216871E-3</v>
+        <v>1.771025218517091E-3</v>
       </c>
       <c r="AC52" s="16">
         <f t="shared" si="23"/>
-        <v>1.2325325212841622E-4</v>
+        <v>1.0976202873243422E-4</v>
       </c>
       <c r="AD52" s="16">
         <f t="shared" si="23"/>
-        <v>3.4765911345733521E-5</v>
+        <v>3.0627949710544375E-5</v>
       </c>
       <c r="AI52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AJ52" s="14">
         <f t="shared" si="24"/>
-        <v>1.0481278232810087E-4</v>
+        <v>1.12602073372714E-4</v>
       </c>
       <c r="AK52" s="14">
         <f t="shared" si="22"/>
-        <v>1.9026143511321814E-2</v>
+        <v>2.0005354278589849E-2</v>
       </c>
       <c r="AL52" s="14">
         <f t="shared" si="22"/>
-        <v>4.0450987203997202E-2</v>
+        <v>4.2055359797519842E-2</v>
       </c>
       <c r="AM52" s="14">
         <f t="shared" si="22"/>
-        <v>0.93034671665892898</v>
+        <v>0.92846942374457908</v>
       </c>
       <c r="AN52" s="14">
         <f t="shared" si="22"/>
-        <v>3.2844555557219601E-4</v>
+        <v>3.084200145963209E-4</v>
       </c>
       <c r="AO52" s="14">
         <f t="shared" si="22"/>
-        <v>4.7595416706184938E-4</v>
+        <v>4.4671901331256973E-4</v>
       </c>
       <c r="AP52" s="14">
         <f t="shared" si="22"/>
-        <v>7.2633837150734657E-3</v>
+        <v>6.7713875462272529E-3</v>
       </c>
       <c r="AQ52" s="14">
         <f t="shared" si="22"/>
-        <v>6.4719497694657596E-5</v>
+        <v>5.9708313285307532E-5</v>
       </c>
       <c r="AR52" s="14">
         <f t="shared" si="22"/>
-        <v>1.8155836558932709E-3</v>
+        <v>1.6612631897846568E-3</v>
       </c>
       <c r="AS52" s="14">
         <f t="shared" si="22"/>
-        <v>8.8487340782682694E-5</v>
+        <v>7.9134079021889853E-5</v>
       </c>
       <c r="AT52" s="14">
         <f t="shared" si="22"/>
-        <v>3.4765911345733521E-5</v>
+        <v>3.0627949710544375E-5</v>
       </c>
     </row>
     <row r="53" spans="19:46">
@@ -5020,90 +5020,90 @@
       </c>
       <c r="U53" s="16">
         <f t="shared" si="23"/>
-        <v>0.99989864041443222</v>
+        <v>0.99989109742898152</v>
       </c>
       <c r="V53" s="16">
         <f t="shared" si="23"/>
-        <v>0.98539198295203567</v>
+        <v>0.98461394848159489</v>
       </c>
       <c r="W53" s="16">
         <f t="shared" si="23"/>
-        <v>0.97337396622406458</v>
+        <v>0.97205791218540671</v>
       </c>
       <c r="X53" s="16">
         <f t="shared" si="23"/>
-        <v>0.94377498016660033</v>
+        <v>0.94130353521881927</v>
       </c>
       <c r="Y53" s="16">
         <f t="shared" si="23"/>
-        <v>1.1831378463513703E-2</v>
+        <v>1.1011912111565283E-2</v>
       </c>
       <c r="Z53" s="16">
         <f t="shared" si="23"/>
-        <v>1.1373005377014323E-2</v>
+        <v>1.0580686852357716E-2</v>
       </c>
       <c r="AA53" s="16">
         <f t="shared" si="23"/>
-        <v>3.1459942398851578E-3</v>
+        <v>2.887569303967837E-3</v>
       </c>
       <c r="AB53" s="16">
         <f t="shared" si="23"/>
-        <v>2.8804252011764182E-3</v>
+        <v>2.6414711023105527E-3</v>
       </c>
       <c r="AC53" s="16">
         <f t="shared" si="23"/>
-        <v>1.7519353779982499E-4</v>
+        <v>1.5649882756282413E-4</v>
       </c>
       <c r="AD53" s="16">
         <f t="shared" si="23"/>
-        <v>5.495549319958613E-5</v>
+        <v>4.8601514249988273E-5</v>
       </c>
       <c r="AI53" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AJ53" s="14">
         <f t="shared" si="24"/>
-        <v>1.0135958556778402E-4</v>
+        <v>1.0890257101847656E-4</v>
       </c>
       <c r="AK53" s="14">
         <f t="shared" si="22"/>
-        <v>1.4506657462396544E-2</v>
+        <v>1.5277148947386632E-2</v>
       </c>
       <c r="AL53" s="14">
         <f t="shared" si="22"/>
-        <v>1.2018016727971093E-2</v>
+        <v>1.2556036296188178E-2</v>
       </c>
       <c r="AM53" s="14">
         <f t="shared" si="22"/>
-        <v>2.9598986057464249E-2</v>
+        <v>3.0754376966587449E-2</v>
       </c>
       <c r="AN53" s="14">
         <f t="shared" si="22"/>
-        <v>0.93194360170308665</v>
+        <v>0.930291623107254</v>
       </c>
       <c r="AO53" s="14">
         <f t="shared" si="22"/>
-        <v>4.5837308649938034E-4</v>
+        <v>4.3122525920756723E-4</v>
       </c>
       <c r="AP53" s="14">
         <f t="shared" si="22"/>
-        <v>8.227011137129165E-3</v>
+        <v>7.6931175483898797E-3</v>
       </c>
       <c r="AQ53" s="14">
         <f t="shared" si="22"/>
-        <v>2.6556903870873956E-4</v>
+        <v>2.4609820165728434E-4</v>
       </c>
       <c r="AR53" s="14">
         <f t="shared" si="22"/>
-        <v>2.705231663376593E-3</v>
+        <v>2.4849722747477287E-3</v>
       </c>
       <c r="AS53" s="14">
         <f t="shared" si="22"/>
-        <v>1.2023804460023886E-4</v>
+        <v>1.0789731331283585E-4</v>
       </c>
       <c r="AT53" s="14">
         <f t="shared" si="22"/>
-        <v>5.495549319958613E-5</v>
+        <v>4.8601514249988273E-5</v>
       </c>
     </row>
     <row r="54" spans="19:46">
@@ -5115,90 +5115,90 @@
       </c>
       <c r="U54" s="16">
         <f t="shared" si="23"/>
-        <v>0.99986939545599607</v>
+        <v>0.9998597780604831</v>
       </c>
       <c r="V54" s="16">
         <f t="shared" si="23"/>
-        <v>0.99836766526907417</v>
+        <v>0.99826256065428998</v>
       </c>
       <c r="W54" s="16">
         <f t="shared" si="23"/>
-        <v>0.97730608480799641</v>
+        <v>0.97616025064488965</v>
       </c>
       <c r="X54" s="16">
         <f t="shared" si="23"/>
-        <v>0.97480445018382678</v>
+        <v>0.97354974610544931</v>
       </c>
       <c r="Y54" s="16">
         <f t="shared" si="23"/>
-        <v>0.95362719851036659</v>
+        <v>0.95151942294263192</v>
       </c>
       <c r="Z54" s="16">
         <f t="shared" si="23"/>
-        <v>1.7072180102894786E-2</v>
+        <v>1.5954998628418201E-2</v>
       </c>
       <c r="AA54" s="16">
         <f t="shared" si="23"/>
-        <v>1.5790742706862163E-2</v>
+        <v>1.4744397841296669E-2</v>
       </c>
       <c r="AB54" s="16">
         <f t="shared" si="23"/>
-        <v>6.1246875094199665E-3</v>
+        <v>5.660252119742212E-3</v>
       </c>
       <c r="AC54" s="16">
         <f t="shared" si="23"/>
-        <v>1.7466815460369153E-3</v>
+        <v>1.5938722504411241E-3</v>
       </c>
       <c r="AD54" s="16">
         <f t="shared" si="23"/>
-        <v>1.3655000385482088E-4</v>
+        <v>1.2171213684495151E-4</v>
       </c>
       <c r="AI54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AJ54" s="14">
         <f t="shared" si="24"/>
-        <v>1.3060454400393162E-4</v>
+        <v>1.4022193951690465E-4</v>
       </c>
       <c r="AK54" s="14">
         <f t="shared" si="22"/>
-        <v>1.5017301869219013E-3</v>
+        <v>1.5972174061931188E-3</v>
       </c>
       <c r="AL54" s="14">
         <f t="shared" si="22"/>
-        <v>2.1061580461077756E-2</v>
+        <v>2.2102310009400328E-2</v>
       </c>
       <c r="AM54" s="14">
         <f t="shared" si="22"/>
-        <v>2.5016346241696352E-3</v>
+        <v>2.6105045394403392E-3</v>
       </c>
       <c r="AN54" s="14">
         <f t="shared" si="22"/>
-        <v>2.1177251673460185E-2</v>
+        <v>2.2030323162817389E-2</v>
       </c>
       <c r="AO54" s="14">
         <f t="shared" si="22"/>
-        <v>0.9365550184074718</v>
+        <v>0.93556442431421372</v>
       </c>
       <c r="AP54" s="14">
         <f t="shared" si="22"/>
-        <v>1.2814373960326232E-3</v>
+        <v>1.2106007871215321E-3</v>
       </c>
       <c r="AQ54" s="14">
         <f t="shared" si="22"/>
-        <v>9.6660551974421961E-3</v>
+        <v>9.0841457215544569E-3</v>
       </c>
       <c r="AR54" s="14">
         <f t="shared" si="22"/>
-        <v>4.3780059633830512E-3</v>
+        <v>4.0663798693010879E-3</v>
       </c>
       <c r="AS54" s="14">
         <f t="shared" si="22"/>
-        <v>1.6101315421820945E-3</v>
+        <v>1.4721601135961725E-3</v>
       </c>
       <c r="AT54" s="14">
         <f t="shared" si="22"/>
-        <v>1.3655000385482088E-4</v>
+        <v>1.2171213684495151E-4</v>
       </c>
     </row>
     <row r="55" spans="19:46">
@@ -5210,90 +5210,90 @@
       </c>
       <c r="U55" s="16">
         <f t="shared" si="23"/>
-        <v>0.99992815707849569</v>
+        <v>0.99992273709985857</v>
       </c>
       <c r="V55" s="16">
         <f t="shared" si="23"/>
-        <v>0.99839270211514408</v>
+        <v>0.99828910305336982</v>
       </c>
       <c r="W55" s="16">
         <f t="shared" si="23"/>
-        <v>0.9945896081084119</v>
+        <v>0.99427160503420731</v>
       </c>
       <c r="X55" s="16">
         <f t="shared" si="23"/>
-        <v>0.98185442182205829</v>
+        <v>0.9809122028959405</v>
       </c>
       <c r="Y55" s="16">
         <f t="shared" si="23"/>
-        <v>0.96893564929234743</v>
+        <v>0.96743310604832622</v>
       </c>
       <c r="Z55" s="16">
         <f t="shared" si="23"/>
-        <v>0.94629368698116589</v>
+        <v>0.94391351026879644</v>
       </c>
       <c r="AA55" s="16">
         <f t="shared" si="23"/>
-        <v>3.0140854018271528E-2</v>
+        <v>2.8355480796432762E-2</v>
       </c>
       <c r="AB55" s="16">
         <f t="shared" si="23"/>
-        <v>2.8739025082197601E-2</v>
+        <v>2.7021336533985855E-2</v>
       </c>
       <c r="AC55" s="16">
         <f t="shared" si="23"/>
-        <v>1.2353384916721001E-2</v>
+        <v>1.1503242960013815E-2</v>
       </c>
       <c r="AD55" s="16">
         <f t="shared" si="23"/>
-        <v>5.6313138134045891E-4</v>
+        <v>5.0837206388395584E-4</v>
       </c>
       <c r="AI55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="AJ55" s="14">
         <f t="shared" si="24"/>
-        <v>7.1842921504305934E-5</v>
+        <v>7.7262900141428226E-5</v>
       </c>
       <c r="AK55" s="14">
         <f t="shared" si="22"/>
-        <v>1.5354549633516124E-3</v>
+        <v>1.6336340464887522E-3</v>
       </c>
       <c r="AL55" s="14">
         <f t="shared" si="22"/>
-        <v>3.8030940067321772E-3</v>
+        <v>4.0174980191625131E-3</v>
       </c>
       <c r="AM55" s="14">
         <f t="shared" si="22"/>
-        <v>1.2735186286353617E-2</v>
+        <v>1.3359402138266807E-2</v>
       </c>
       <c r="AN55" s="14">
         <f t="shared" si="22"/>
-        <v>1.2918772529710854E-2</v>
+        <v>1.347909684761428E-2</v>
       </c>
       <c r="AO55" s="14">
         <f t="shared" si="22"/>
-        <v>2.264196231118154E-2</v>
+        <v>2.3519595779529778E-2</v>
       </c>
       <c r="AP55" s="14">
         <f t="shared" si="22"/>
-        <v>0.9161528329628944</v>
+        <v>0.91555802947236364</v>
       </c>
       <c r="AQ55" s="14">
         <f t="shared" si="22"/>
-        <v>1.4018289360739275E-3</v>
+        <v>1.3341442624469069E-3</v>
       </c>
       <c r="AR55" s="14">
         <f t="shared" si="22"/>
-        <v>1.6385640165476598E-2</v>
+        <v>1.551809357397204E-2</v>
       </c>
       <c r="AS55" s="14">
         <f t="shared" si="22"/>
-        <v>1.1790253535380543E-2</v>
+        <v>1.099487089612986E-2</v>
       </c>
       <c r="AT55" s="14">
         <f t="shared" si="22"/>
-        <v>5.6313138134045891E-4</v>
+        <v>5.0837206388395584E-4</v>
       </c>
     </row>
     <row r="56" spans="19:46">
@@ -5305,90 +5305,90 @@
       </c>
       <c r="U56" s="16">
         <f t="shared" si="23"/>
-        <v>0.99992815707849569</v>
+        <v>0.99992273709985857</v>
       </c>
       <c r="V56" s="16">
         <f t="shared" si="23"/>
-        <v>0.99928631715706329</v>
+        <v>0.99923796487940841</v>
       </c>
       <c r="W56" s="16">
         <f t="shared" si="23"/>
-        <v>0.99025511479850103</v>
+        <v>0.98971310424020098</v>
       </c>
       <c r="X56" s="16">
         <f t="shared" si="23"/>
-        <v>0.98863845853945098</v>
+        <v>0.98801647193946207</v>
       </c>
       <c r="Y56" s="16">
         <f t="shared" si="23"/>
-        <v>0.98695862875674156</v>
+        <v>0.98625519301066333</v>
       </c>
       <c r="Z56" s="16">
         <f t="shared" si="23"/>
-        <v>0.92868640628482846</v>
+        <v>0.92569027392233982</v>
       </c>
       <c r="AA56" s="16">
         <f t="shared" si="23"/>
-        <v>0.88288976852876344</v>
+        <v>0.87849148686715151</v>
       </c>
       <c r="AB56" s="16">
         <f t="shared" si="23"/>
-        <v>5.6634811342208186E-2</v>
+        <v>5.3697130979850377E-2</v>
       </c>
       <c r="AC56" s="16">
         <f t="shared" si="23"/>
-        <v>4.5429111449926902E-2</v>
+        <v>4.2952788070130206E-2</v>
       </c>
       <c r="AD56" s="16">
         <f t="shared" si="23"/>
-        <v>2.0665456709720422E-3</v>
+        <v>1.888864771520406E-3</v>
       </c>
       <c r="AI56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AJ56" s="14">
         <f t="shared" si="24"/>
-        <v>7.1842921504305934E-5</v>
+        <v>7.7262900141428226E-5</v>
       </c>
       <c r="AK56" s="14">
         <f t="shared" si="22"/>
-        <v>6.4183992143240776E-4</v>
+        <v>6.8477222045015829E-4</v>
       </c>
       <c r="AL56" s="14">
         <f t="shared" si="22"/>
-        <v>9.0312023585622514E-3</v>
+        <v>9.5248606392074331E-3</v>
       </c>
       <c r="AM56" s="14">
         <f t="shared" si="22"/>
-        <v>1.6166562590500533E-3</v>
+        <v>1.6966323007389095E-3</v>
       </c>
       <c r="AN56" s="14">
         <f t="shared" si="22"/>
-        <v>1.6798297827094189E-3</v>
+        <v>1.7612789287987374E-3</v>
       </c>
       <c r="AO56" s="14">
         <f t="shared" si="22"/>
-        <v>5.8272222471913104E-2</v>
+        <v>6.056491908832351E-2</v>
       </c>
       <c r="AP56" s="14">
         <f t="shared" si="22"/>
-        <v>4.5796637756065017E-2</v>
+        <v>4.7198787055188318E-2</v>
       </c>
       <c r="AQ56" s="14">
         <f t="shared" si="22"/>
-        <v>0.82625495718655528</v>
+        <v>0.8247943558873011</v>
       </c>
       <c r="AR56" s="14">
         <f t="shared" si="22"/>
-        <v>1.1205699892281283E-2</v>
+        <v>1.0744342909720171E-2</v>
       </c>
       <c r="AS56" s="14">
         <f t="shared" si="22"/>
-        <v>4.3362565778954858E-2</v>
+        <v>4.1063923298609799E-2</v>
       </c>
       <c r="AT56" s="14">
         <f t="shared" si="22"/>
-        <v>2.0665456709720422E-3</v>
+        <v>1.888864771520406E-3</v>
       </c>
     </row>
     <row r="57" spans="19:46">
@@ -5400,90 +5400,90 @@
       </c>
       <c r="U57" s="16">
         <f t="shared" si="23"/>
-        <v>0.999926411644811</v>
+        <v>0.99992086514686196</v>
       </c>
       <c r="V57" s="16">
         <f t="shared" si="23"/>
-        <v>0.99881306871873388</v>
+        <v>0.99873505432497056</v>
       </c>
       <c r="W57" s="16">
         <f t="shared" si="23"/>
-        <v>0.99678182506050494</v>
+        <v>0.99658445084127634</v>
       </c>
       <c r="X57" s="16">
         <f t="shared" si="23"/>
-        <v>0.98774785216728511</v>
+        <v>0.98708248545929489</v>
       </c>
       <c r="Y57" s="16">
         <f t="shared" si="23"/>
-        <v>0.97453245018132062</v>
+        <v>0.97326603148602631</v>
       </c>
       <c r="Z57" s="16">
         <f t="shared" si="23"/>
-        <v>0.94191230686817373</v>
+        <v>0.93937407954823904</v>
       </c>
       <c r="AA57" s="16">
         <f t="shared" si="23"/>
-        <v>0.83060879147587707</v>
+        <v>0.82488328277973</v>
       </c>
       <c r="AB57" s="16">
         <f t="shared" si="23"/>
-        <v>0.8062700275250364</v>
+        <v>0.80000903248383315</v>
       </c>
       <c r="AC57" s="16">
         <f t="shared" si="23"/>
-        <v>0.10556283168483713</v>
+        <v>0.10092247318869903</v>
       </c>
       <c r="AD57" s="16">
         <f t="shared" si="23"/>
-        <v>1.1830687199401889E-2</v>
+        <v>1.1011261637646565E-2</v>
       </c>
       <c r="AI57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AJ57" s="14">
         <f t="shared" si="24"/>
-        <v>7.3588355189002641E-5</v>
+        <v>7.9134853138040917E-5</v>
       </c>
       <c r="AK57" s="14">
         <f t="shared" si="22"/>
-        <v>1.113342926077121E-3</v>
+        <v>1.1858108218913976E-3</v>
       </c>
       <c r="AL57" s="14">
         <f t="shared" si="22"/>
-        <v>2.0312436582289317E-3</v>
+        <v>2.1506034836942245E-3</v>
       </c>
       <c r="AM57" s="14">
         <f t="shared" si="22"/>
-        <v>9.0339728932198327E-3</v>
+        <v>9.5019653819814476E-3</v>
       </c>
       <c r="AN57" s="14">
         <f t="shared" si="22"/>
-        <v>1.3215401985964492E-2</v>
+        <v>1.3816453973268583E-2</v>
       </c>
       <c r="AO57" s="14">
         <f t="shared" si="22"/>
-        <v>3.2620143313146888E-2</v>
+        <v>3.3891951937787268E-2</v>
       </c>
       <c r="AP57" s="14">
         <f t="shared" si="22"/>
-        <v>0.11130351539229666</v>
+        <v>0.11449079676850904</v>
       </c>
       <c r="AQ57" s="14">
         <f t="shared" si="22"/>
-        <v>2.4338763950840669E-2</v>
+        <v>2.4874250295896849E-2</v>
       </c>
       <c r="AR57" s="14">
         <f t="shared" si="22"/>
-        <v>0.70070719584019925</v>
+        <v>0.69908655929513408</v>
       </c>
       <c r="AS57" s="14">
         <f t="shared" si="22"/>
-        <v>9.3732144485435237E-2</v>
+        <v>8.9911211551052458E-2</v>
       </c>
       <c r="AT57" s="14">
         <f t="shared" si="22"/>
-        <v>1.1830687199401889E-2</v>
+        <v>1.1011261637646565E-2</v>
       </c>
     </row>
     <row r="58" spans="19:46">
@@ -5495,90 +5495,90 @@
       </c>
       <c r="U58" s="16">
         <f t="shared" si="23"/>
-        <v>0.99998500724957917</v>
+        <v>0.99998381329190256</v>
       </c>
       <c r="V58" s="16">
         <f t="shared" ref="V58:AD58" si="25">_xlfn.NORM.DIST((_xlfn.NORM.INV(V13,0,1)-SQRT($F$17)*$AG$41)/(SQRT(1-$F$17)),0,1,TRUE)</f>
-        <v>0.9998233643921659</v>
+        <v>0.9998105270000015</v>
       </c>
       <c r="W58" s="16">
         <f t="shared" si="25"/>
-        <v>0.99893851051707205</v>
+        <v>0.99886825729406925</v>
       </c>
       <c r="X58" s="16">
         <f t="shared" si="25"/>
-        <v>0.99691112604954535</v>
+        <v>0.99672108484554833</v>
       </c>
       <c r="Y58" s="16">
         <f t="shared" si="25"/>
-        <v>0.99397382436021908</v>
+        <v>0.99362297891323437</v>
       </c>
       <c r="Z58" s="16">
         <f t="shared" si="25"/>
-        <v>0.97275982378369474</v>
+        <v>0.97141762336587067</v>
       </c>
       <c r="AA58" s="16">
         <f t="shared" si="25"/>
-        <v>0.85380064986626192</v>
+        <v>0.84863231585504129</v>
       </c>
       <c r="AB58" s="16">
         <f t="shared" si="25"/>
-        <v>0.74886158068502418</v>
+        <v>0.74151865116247728</v>
       </c>
       <c r="AC58" s="16">
         <f t="shared" si="25"/>
-        <v>0.61705255610729526</v>
+        <v>0.60807173654023461</v>
       </c>
       <c r="AD58" s="16">
         <f t="shared" si="25"/>
-        <v>0.14264054809574275</v>
+        <v>0.1369583306434482</v>
       </c>
       <c r="AI58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AJ58" s="14">
         <f t="shared" si="24"/>
-        <v>1.4992750420828038E-5</v>
+        <v>1.6186708097443159E-5</v>
       </c>
       <c r="AK58" s="14">
         <f t="shared" si="22"/>
-        <v>1.6164285741326889E-4</v>
+        <v>1.732862919010536E-4</v>
       </c>
       <c r="AL58" s="14">
         <f t="shared" si="22"/>
-        <v>8.848538750938495E-4</v>
+        <v>9.4226970593225268E-4</v>
       </c>
       <c r="AM58" s="14">
         <f t="shared" si="22"/>
-        <v>2.027384467526705E-3</v>
+        <v>2.1471724485209176E-3</v>
       </c>
       <c r="AN58" s="14">
         <f t="shared" si="22"/>
-        <v>2.937301689326266E-3</v>
+        <v>3.0981059323139659E-3</v>
       </c>
       <c r="AO58" s="14">
         <f t="shared" si="22"/>
-        <v>2.1214000576524339E-2</v>
+        <v>2.2205355547363692E-2</v>
       </c>
       <c r="AP58" s="14">
         <f t="shared" si="22"/>
-        <v>0.11895917391743283</v>
+        <v>0.12278530751082939</v>
       </c>
       <c r="AQ58" s="14">
         <f t="shared" si="22"/>
-        <v>0.10493906918123774</v>
+        <v>0.107113664692564</v>
       </c>
       <c r="AR58" s="14">
         <f t="shared" si="22"/>
-        <v>0.13180902457772892</v>
+        <v>0.13344691462224267</v>
       </c>
       <c r="AS58" s="14">
         <f t="shared" si="22"/>
-        <v>0.47441200801155248</v>
+        <v>0.47111340589678641</v>
       </c>
       <c r="AT58" s="14">
         <f t="shared" si="22"/>
-        <v>0.14264054809574275</v>
+        <v>0.1369583306434482</v>
       </c>
     </row>
     <row r="59" spans="19:46">
